--- a/day_data/2022-07-06_1MIN.xlsx
+++ b/day_data/2022-07-06_1MIN.xlsx
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44748.1805787037</v>
+        <v>44748.18125</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -454,32 +454,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>2165.1</v>
+        <v>2165.8</v>
       </c>
       <c r="E2" t="n">
+        <v>2167.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2167.2</v>
+      </c>
+      <c r="G2" t="n">
         <v>2165.8</v>
       </c>
-      <c r="F2" t="n">
-        <v>2165.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2165.1</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2160.83</v>
+        <v>2160.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2510</v>
+        <v>1346</v>
       </c>
       <c r="D3" t="n">
-        <v>2254.5</v>
+        <v>2255.05</v>
       </c>
       <c r="E3" t="n">
-        <v>2255.25</v>
+        <v>2256.8</v>
       </c>
       <c r="F3" t="n">
         <v>2257.95</v>
       </c>
       <c r="G3" t="n">
-        <v>2254.1</v>
+        <v>2254.7</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -507,12 +507,12 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2253.79</v>
+        <v>2253.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24698</v>
+        <v>14078</v>
       </c>
       <c r="D4" t="n">
-        <v>682.9</v>
+        <v>682.95</v>
       </c>
       <c r="E4" t="n">
-        <v>682.65</v>
+        <v>682.8</v>
       </c>
       <c r="F4" t="n">
-        <v>683.4</v>
+        <v>682.95</v>
       </c>
       <c r="G4" t="n">
         <v>682.1</v>
@@ -540,12 +540,12 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>682.09</v>
+        <v>682.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18126157407</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>447</v>
+        <v>971</v>
       </c>
       <c r="D5" t="n">
         <v>368.05</v>
       </c>
       <c r="E5" t="n">
-        <v>368.1</v>
+        <v>368.15</v>
       </c>
       <c r="F5" t="n">
         <v>368.25</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2304</v>
+        <v>846</v>
       </c>
       <c r="D6" t="n">
-        <v>3804</v>
+        <v>3804.45</v>
       </c>
       <c r="E6" t="n">
-        <v>3804</v>
+        <v>3807.3</v>
       </c>
       <c r="F6" t="n">
-        <v>3811.9</v>
+        <v>3807.3</v>
       </c>
       <c r="G6" t="n">
-        <v>3802.1</v>
+        <v>3802.85</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3808.54</v>
+        <v>3808.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13362</v>
+        <v>12131</v>
       </c>
       <c r="D7" t="n">
         <v>2825</v>
       </c>
       <c r="E7" t="n">
-        <v>2825.1</v>
+        <v>2825</v>
       </c>
       <c r="F7" t="n">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="G7" t="n">
-        <v>2824.4</v>
+        <v>2823.25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -639,12 +639,12 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2838.76</v>
+        <v>2838.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3589</v>
+        <v>652</v>
       </c>
       <c r="D8" t="n">
-        <v>568.2</v>
+        <v>568.45</v>
       </c>
       <c r="E8" t="n">
-        <v>568.15</v>
+        <v>568.35</v>
       </c>
       <c r="F8" t="n">
-        <v>569.3</v>
+        <v>568.5</v>
       </c>
       <c r="G8" t="n">
         <v>568.15</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18126157407</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -685,19 +685,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2720</v>
+        <v>1118</v>
       </c>
       <c r="D9" t="n">
-        <v>536.35</v>
+        <v>536.8</v>
       </c>
       <c r="E9" t="n">
-        <v>536.8</v>
+        <v>537</v>
       </c>
       <c r="F9" t="n">
-        <v>537.15</v>
+        <v>537</v>
       </c>
       <c r="G9" t="n">
-        <v>536.35</v>
+        <v>536.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -705,12 +705,12 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>535.27</v>
+        <v>535.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -718,19 +718,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23827</v>
+        <v>36091</v>
       </c>
       <c r="D10" t="n">
-        <v>657</v>
+        <v>656.85</v>
       </c>
       <c r="E10" t="n">
-        <v>656.8</v>
+        <v>657.9</v>
       </c>
       <c r="F10" t="n">
-        <v>657.7</v>
+        <v>657.9</v>
       </c>
       <c r="G10" t="n">
-        <v>656.7</v>
+        <v>656.85</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -738,12 +738,12 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>655.7</v>
+        <v>655.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>637</v>
+        <v>537</v>
       </c>
       <c r="D11" t="n">
-        <v>3697.05</v>
+        <v>3703.95</v>
       </c>
       <c r="E11" t="n">
-        <v>3703.95</v>
+        <v>3702</v>
       </c>
       <c r="F11" t="n">
-        <v>3703.95</v>
+        <v>3704.1</v>
       </c>
       <c r="G11" t="n">
-        <v>3697.05</v>
+        <v>3702</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -771,12 +771,12 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3695.74</v>
+        <v>3695.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8412</v>
+        <v>4333</v>
       </c>
       <c r="D12" t="n">
-        <v>5798.9</v>
+        <v>5800</v>
       </c>
       <c r="E12" t="n">
-        <v>5797.55</v>
+        <v>5801.1</v>
       </c>
       <c r="F12" t="n">
         <v>5805</v>
       </c>
       <c r="G12" t="n">
-        <v>5797.25</v>
+        <v>5800</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -804,12 +804,12 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5779.63</v>
+        <v>5779.83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44748.1805787037</v>
+        <v>44748.18127314815</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -817,19 +817,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26475</v>
+        <v>9700</v>
       </c>
       <c r="D13" t="n">
-        <v>34162.3</v>
+        <v>34153.15</v>
       </c>
       <c r="E13" t="n">
-        <v>34146.65</v>
+        <v>34170</v>
       </c>
       <c r="F13" t="n">
-        <v>34191</v>
+        <v>34170</v>
       </c>
       <c r="G13" t="n">
-        <v>34144.2</v>
+        <v>34153.15</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -837,12 +837,12 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>34108.21</v>
+        <v>34108.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18126157407</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="D14" t="n">
-        <v>1742.55</v>
+        <v>1743.45</v>
       </c>
       <c r="E14" t="n">
-        <v>1743.45</v>
+        <v>1741.6</v>
       </c>
       <c r="F14" t="n">
         <v>1743.45</v>
       </c>
       <c r="G14" t="n">
-        <v>1742.55</v>
+        <v>1741.6</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -870,12 +870,12 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1739.14</v>
+        <v>1739.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -883,19 +883,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1082</v>
+        <v>7543</v>
       </c>
       <c r="D15" t="n">
-        <v>656.6</v>
+        <v>655.6</v>
       </c>
       <c r="E15" t="n">
-        <v>655.55</v>
+        <v>656.65</v>
       </c>
       <c r="F15" t="n">
         <v>656.65</v>
       </c>
       <c r="G15" t="n">
-        <v>655.55</v>
+        <v>655.6</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -903,12 +903,12 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>655.63</v>
+        <v>655.6799999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -916,19 +916,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17446</v>
+        <v>12192</v>
       </c>
       <c r="D16" t="n">
-        <v>687.9</v>
+        <v>688.05</v>
       </c>
       <c r="E16" t="n">
-        <v>688.15</v>
+        <v>688.75</v>
       </c>
       <c r="F16" t="n">
-        <v>688.75</v>
+        <v>688.8</v>
       </c>
       <c r="G16" t="n">
-        <v>687.75</v>
+        <v>688.05</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -936,12 +936,12 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>687.33</v>
+        <v>687.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44748.18056712963</v>
+        <v>44748.18127314815</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7427</v>
+        <v>1673</v>
       </c>
       <c r="D17" t="n">
-        <v>315.55</v>
+        <v>315.25</v>
       </c>
       <c r="E17" t="n">
-        <v>315.25</v>
+        <v>315.5</v>
       </c>
       <c r="F17" t="n">
         <v>315.65</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -982,19 +982,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6614</v>
+        <v>3720</v>
       </c>
       <c r="D18" t="n">
+        <v>317.75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>317.85</v>
+      </c>
+      <c r="G18" t="n">
         <v>317.65</v>
-      </c>
-      <c r="E18" t="n">
-        <v>317.6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>317.95</v>
-      </c>
-      <c r="G18" t="n">
-        <v>317.6</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1015,19 +1015,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12016</v>
+        <v>8958</v>
       </c>
       <c r="D19" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E19" t="n">
         <v>642.9</v>
       </c>
       <c r="F19" t="n">
-        <v>645</v>
+        <v>643.2</v>
       </c>
       <c r="G19" t="n">
-        <v>642.9</v>
+        <v>642</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1035,12 +1035,12 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>646.98</v>
+        <v>646.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4220</v>
+        <v>4316</v>
       </c>
       <c r="D20" t="n">
-        <v>935.95</v>
+        <v>937.45</v>
       </c>
       <c r="E20" t="n">
-        <v>936.55</v>
+        <v>937.8</v>
       </c>
       <c r="F20" t="n">
-        <v>937.3</v>
+        <v>938</v>
       </c>
       <c r="G20" t="n">
-        <v>935.75</v>
+        <v>937</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1068,12 +1068,12 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>936.24</v>
+        <v>936.27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1081,32 +1081,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>41743</v>
+        <v>23581</v>
       </c>
       <c r="D21" t="n">
-        <v>178.7</v>
+        <v>178.75</v>
       </c>
       <c r="E21" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>179</v>
+      </c>
+      <c r="G21" t="n">
         <v>178.75</v>
       </c>
-      <c r="F21" t="n">
-        <v>178.8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>178.6</v>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>179.52</v>
+        <v>179.51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1114,19 +1114,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2896</v>
+        <v>1545</v>
       </c>
       <c r="D22" t="n">
-        <v>3541.45</v>
+        <v>3535</v>
       </c>
       <c r="E22" t="n">
-        <v>3535</v>
+        <v>3531.05</v>
       </c>
       <c r="F22" t="n">
-        <v>3546.4</v>
+        <v>3539.2</v>
       </c>
       <c r="G22" t="n">
-        <v>3533.3</v>
+        <v>3531.05</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1134,12 +1134,12 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3549.33</v>
+        <v>3548.92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1147,19 +1147,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6406</v>
+        <v>10041</v>
       </c>
       <c r="D23" t="n">
-        <v>526.3</v>
+        <v>526.95</v>
       </c>
       <c r="E23" t="n">
-        <v>526.7</v>
+        <v>525.55</v>
       </c>
       <c r="F23" t="n">
         <v>527.3</v>
       </c>
       <c r="G23" t="n">
-        <v>526.3</v>
+        <v>525.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1167,12 +1167,12 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>525.35</v>
+        <v>525.39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44748.1805787037</v>
+        <v>44748.18127314815</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>380</v>
+        <v>71</v>
       </c>
       <c r="D24" t="n">
-        <v>3618.1</v>
+        <v>3620.25</v>
       </c>
       <c r="E24" t="n">
+        <v>3620</v>
+      </c>
+      <c r="F24" t="n">
         <v>3620.25</v>
       </c>
-      <c r="F24" t="n">
-        <v>3624.25</v>
-      </c>
       <c r="G24" t="n">
-        <v>3618.1</v>
+        <v>3619.05</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1200,12 +1200,12 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3616.73</v>
+        <v>3616.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1213,19 +1213,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15258</v>
+        <v>9694</v>
       </c>
       <c r="D25" t="n">
-        <v>325.25</v>
+        <v>325.3</v>
       </c>
       <c r="E25" t="n">
-        <v>325.25</v>
+        <v>325.55</v>
       </c>
       <c r="F25" t="n">
-        <v>325.65</v>
+        <v>325.55</v>
       </c>
       <c r="G25" t="n">
-        <v>325.1</v>
+        <v>325.3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>324.67</v>
+        <v>324.68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1246,32 +1246,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>431</v>
+        <v>246</v>
       </c>
       <c r="D26" t="n">
-        <v>4412.15</v>
+        <v>4412.6</v>
       </c>
       <c r="E26" t="n">
+        <v>4417.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4417.3</v>
+      </c>
+      <c r="G26" t="n">
         <v>4412.6</v>
       </c>
-      <c r="F26" t="n">
-        <v>4421.2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4412.1</v>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4414.84</v>
+        <v>4414.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3768</v>
+        <v>3515</v>
       </c>
       <c r="D27" t="n">
-        <v>2876.35</v>
+        <v>2876</v>
       </c>
       <c r="E27" t="n">
-        <v>2876</v>
+        <v>2878.3</v>
       </c>
       <c r="F27" t="n">
-        <v>2877.5</v>
+        <v>2879.85</v>
       </c>
       <c r="G27" t="n">
         <v>2873.25</v>
@@ -1299,12 +1299,12 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2862.05</v>
+        <v>2862.24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44748.18056712963</v>
+        <v>44748.18125</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>46896</v>
+        <v>3832</v>
       </c>
       <c r="D28" t="n">
-        <v>835.55</v>
+        <v>835.35</v>
       </c>
       <c r="E28" t="n">
         <v>835.35</v>
       </c>
       <c r="F28" t="n">
-        <v>836</v>
+        <v>835.9</v>
       </c>
       <c r="G28" t="n">
-        <v>834.4</v>
+        <v>834.55</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1332,12 +1332,12 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>834.08</v>
+        <v>834.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1345,19 +1345,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2268</v>
+        <v>525</v>
       </c>
       <c r="D29" t="n">
-        <v>1235.6</v>
+        <v>1237.25</v>
       </c>
       <c r="E29" t="n">
+        <v>1236.8</v>
+      </c>
+      <c r="F29" t="n">
         <v>1237.25</v>
       </c>
-      <c r="F29" t="n">
-        <v>1237.35</v>
-      </c>
       <c r="G29" t="n">
-        <v>1235.6</v>
+        <v>1236.35</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1287</v>
+        <v>2109</v>
       </c>
       <c r="D30" t="n">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E30" t="n">
         <v>1353</v>
       </c>
       <c r="F30" t="n">
-        <v>1355.6</v>
+        <v>1354.6</v>
       </c>
       <c r="G30" t="n">
-        <v>1353</v>
+        <v>1352.45</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1398,12 +1398,12 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1352.66</v>
+        <v>1352.68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1411,19 +1411,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5438</v>
+        <v>1676</v>
       </c>
       <c r="D31" t="n">
+        <v>1172.6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1173.95</v>
+      </c>
+      <c r="F31" t="n">
         <v>1174</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>1172.6</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1174.65</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1172.05</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4696</v>
+        <v>2089</v>
       </c>
       <c r="D32" t="n">
-        <v>984.15</v>
+        <v>983.95</v>
       </c>
       <c r="E32" t="n">
+        <v>984.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="G32" t="n">
         <v>983.95</v>
-      </c>
-      <c r="F32" t="n">
-        <v>985.15</v>
-      </c>
-      <c r="G32" t="n">
-        <v>983.6</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>18920</v>
+        <v>7630</v>
       </c>
       <c r="D33" t="n">
-        <v>2218.9</v>
+        <v>2219.6</v>
       </c>
       <c r="E33" t="n">
-        <v>2219.65</v>
+        <v>2220.7</v>
       </c>
       <c r="F33" t="n">
-        <v>2221</v>
+        <v>2221.9</v>
       </c>
       <c r="G33" t="n">
-        <v>2218.9</v>
+        <v>2219.4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1497,12 +1497,12 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2210.84</v>
+        <v>2210.94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12495</v>
+        <v>6727</v>
       </c>
       <c r="D34" t="n">
-        <v>1360.7</v>
+        <v>1360.35</v>
       </c>
       <c r="E34" t="n">
-        <v>1360.8</v>
+        <v>1360.9</v>
       </c>
       <c r="F34" t="n">
-        <v>1361.55</v>
+        <v>1361.2</v>
       </c>
       <c r="G34" t="n">
-        <v>1360.1</v>
+        <v>1360.35</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1530,12 +1530,12 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1357.47</v>
+        <v>1357.49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1543,19 +1543,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9520</v>
+        <v>10267</v>
       </c>
       <c r="D35" t="n">
-        <v>570.4</v>
+        <v>571.5</v>
       </c>
       <c r="E35" t="n">
-        <v>571.5</v>
+        <v>571.3</v>
       </c>
       <c r="F35" t="n">
-        <v>571.6</v>
+        <v>571.9</v>
       </c>
       <c r="G35" t="n">
-        <v>570.25</v>
+        <v>571.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1563,12 +1563,12 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>568.36</v>
+        <v>568.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1576,32 +1576,32 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>961</v>
+        <v>2251</v>
       </c>
       <c r="D36" t="n">
-        <v>2774</v>
+        <v>2776.9</v>
       </c>
       <c r="E36" t="n">
+        <v>2784.45</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2784.45</v>
+      </c>
+      <c r="G36" t="n">
         <v>2776.9</v>
       </c>
-      <c r="F36" t="n">
-        <v>2778.9</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2774</v>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2770.88</v>
+        <v>2771.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1609,19 +1609,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>65613</v>
+        <v>34675</v>
       </c>
       <c r="D37" t="n">
-        <v>329.55</v>
+        <v>329.7</v>
       </c>
       <c r="E37" t="n">
         <v>329.7</v>
       </c>
       <c r="F37" t="n">
-        <v>330</v>
+        <v>329.75</v>
       </c>
       <c r="G37" t="n">
-        <v>329.4</v>
+        <v>329.5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1629,12 +1629,12 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>331.44</v>
+        <v>331.42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18126157407</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>57904</v>
+        <v>35695</v>
       </c>
       <c r="D38" t="n">
-        <v>230.05</v>
+        <v>229.9</v>
       </c>
       <c r="E38" t="n">
         <v>229.9</v>
       </c>
       <c r="F38" t="n">
-        <v>230.05</v>
+        <v>230</v>
       </c>
       <c r="G38" t="n">
         <v>229.85</v>
@@ -1662,12 +1662,12 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>231.18</v>
+        <v>231.16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1675,19 +1675,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>34056</v>
+        <v>11034</v>
       </c>
       <c r="D39" t="n">
-        <v>2427.1</v>
+        <v>2429.6</v>
       </c>
       <c r="E39" t="n">
-        <v>2431.2</v>
+        <v>2430.5</v>
       </c>
       <c r="F39" t="n">
-        <v>2432.8</v>
+        <v>2431.75</v>
       </c>
       <c r="G39" t="n">
-        <v>2427.05</v>
+        <v>2426.65</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1695,12 +1695,12 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2415.56</v>
+        <v>2415.86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32244</v>
+        <v>21992</v>
       </c>
       <c r="D40" t="n">
-        <v>725.45</v>
+        <v>725.75</v>
       </c>
       <c r="E40" t="n">
-        <v>725.75</v>
+        <v>725.85</v>
       </c>
       <c r="F40" t="n">
-        <v>726.8</v>
+        <v>726</v>
       </c>
       <c r="G40" t="n">
-        <v>725.45</v>
+        <v>725.55</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1728,12 +1728,12 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>724.3099999999999</v>
+        <v>724.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44748.18059027778</v>
+        <v>44748.18129629629</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1741,19 +1741,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4855</v>
+        <v>3420</v>
       </c>
       <c r="D41" t="n">
-        <v>501.2</v>
+        <v>501.4</v>
       </c>
       <c r="E41" t="n">
-        <v>501.45</v>
+        <v>501.85</v>
       </c>
       <c r="F41" t="n">
-        <v>501.45</v>
+        <v>501.9</v>
       </c>
       <c r="G41" t="n">
-        <v>501.15</v>
+        <v>501.4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1761,12 +1761,12 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>499.3</v>
+        <v>499.35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44748.1805787037</v>
+        <v>44748.18127314815</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2048</v>
+        <v>2657</v>
       </c>
       <c r="D42" t="n">
-        <v>360.65</v>
+        <v>360.7</v>
       </c>
       <c r="E42" t="n">
-        <v>360.7</v>
+        <v>360.85</v>
       </c>
       <c r="F42" t="n">
-        <v>361.2</v>
+        <v>361</v>
       </c>
       <c r="G42" t="n">
-        <v>360.6</v>
+        <v>360.5</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1794,12 +1794,12 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>360.09</v>
+        <v>360.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1807,19 +1807,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3240</v>
+        <v>4277</v>
       </c>
       <c r="D43" t="n">
-        <v>1669.9</v>
+        <v>1670</v>
       </c>
       <c r="E43" t="n">
+        <v>1668</v>
+      </c>
+      <c r="F43" t="n">
         <v>1670</v>
       </c>
-      <c r="F43" t="n">
-        <v>1670.9</v>
-      </c>
       <c r="G43" t="n">
-        <v>1669.05</v>
+        <v>1667.2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1827,12 +1827,12 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1676.17</v>
+        <v>1676.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1840,32 +1840,32 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5008</v>
+        <v>2325</v>
       </c>
       <c r="D44" t="n">
-        <v>830</v>
+        <v>828.35</v>
       </c>
       <c r="E44" t="n">
+        <v>829.65</v>
+      </c>
+      <c r="F44" t="n">
+        <v>829.7</v>
+      </c>
+      <c r="G44" t="n">
         <v>828.35</v>
       </c>
-      <c r="F44" t="n">
-        <v>830.7</v>
-      </c>
-      <c r="G44" t="n">
-        <v>828.2</v>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>831.58</v>
+        <v>831.5599999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1873,19 +1873,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15966</v>
+        <v>11057</v>
       </c>
       <c r="D45" t="n">
-        <v>1477.75</v>
+        <v>1478.05</v>
       </c>
       <c r="E45" t="n">
-        <v>1478</v>
+        <v>1477.55</v>
       </c>
       <c r="F45" t="n">
-        <v>1479.95</v>
+        <v>1479.1</v>
       </c>
       <c r="G45" t="n">
-        <v>1477.75</v>
+        <v>1477.55</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1893,12 +1893,12 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1482.02</v>
+        <v>1481.97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27937</v>
+        <v>11651</v>
       </c>
       <c r="D46" t="n">
-        <v>561.3</v>
+        <v>562.15</v>
       </c>
       <c r="E46" t="n">
-        <v>562.15</v>
+        <v>562.8</v>
       </c>
       <c r="F46" t="n">
-        <v>562.45</v>
+        <v>563</v>
       </c>
       <c r="G46" t="n">
-        <v>561.3</v>
+        <v>562.05</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1926,12 +1926,12 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>563.09</v>
+        <v>563.08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1939,19 +1939,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>56282</v>
+        <v>22331</v>
       </c>
       <c r="D47" t="n">
-        <v>287.4</v>
+        <v>287.9</v>
       </c>
       <c r="E47" t="n">
-        <v>287.9</v>
+        <v>287.8</v>
       </c>
       <c r="F47" t="n">
         <v>287.95</v>
       </c>
       <c r="G47" t="n">
-        <v>287.4</v>
+        <v>287.75</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1972,19 +1972,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>13042</v>
+        <v>8061</v>
       </c>
       <c r="D48" t="n">
-        <v>324.2</v>
+        <v>323.7</v>
       </c>
       <c r="E48" t="n">
-        <v>323.7</v>
+        <v>323.9</v>
       </c>
       <c r="F48" t="n">
-        <v>324.25</v>
+        <v>323.9</v>
       </c>
       <c r="G48" t="n">
-        <v>323.3</v>
+        <v>323.55</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1992,12 +1992,12 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>325.68</v>
+        <v>325.66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2005,19 +2005,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8725</v>
+        <v>5016</v>
       </c>
       <c r="D49" t="n">
-        <v>544.2</v>
+        <v>544.1</v>
       </c>
       <c r="E49" t="n">
-        <v>544.1</v>
+        <v>544.35</v>
       </c>
       <c r="F49" t="n">
-        <v>544.8</v>
+        <v>544.7</v>
       </c>
       <c r="G49" t="n">
-        <v>543.65</v>
+        <v>543.8</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2025,12 +2025,12 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>545.42</v>
+        <v>545.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2038,19 +2038,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25944</v>
+        <v>8721</v>
       </c>
       <c r="D50" t="n">
-        <v>545.65</v>
+        <v>545.4</v>
       </c>
       <c r="E50" t="n">
-        <v>545.55</v>
+        <v>545.95</v>
       </c>
       <c r="F50" t="n">
-        <v>546.65</v>
+        <v>546</v>
       </c>
       <c r="G50" t="n">
-        <v>545.35</v>
+        <v>545.4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2058,12 +2058,12 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>551.05</v>
+        <v>550.98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4051</v>
+        <v>3110</v>
       </c>
       <c r="D51" t="n">
-        <v>1679.6</v>
+        <v>1678.7</v>
       </c>
       <c r="E51" t="n">
-        <v>1678.7</v>
+        <v>1680</v>
       </c>
       <c r="F51" t="n">
-        <v>1680.6</v>
+        <v>1680.1</v>
       </c>
       <c r="G51" t="n">
-        <v>1678.2</v>
+        <v>1678.25</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44748.18059027778</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8794</v>
+        <v>242</v>
       </c>
       <c r="D52" t="n">
-        <v>342.5</v>
+        <v>341.95</v>
       </c>
       <c r="E52" t="n">
-        <v>341.95</v>
+        <v>342.05</v>
       </c>
       <c r="F52" t="n">
-        <v>342.5</v>
+        <v>342.15</v>
       </c>
       <c r="G52" t="n">
         <v>341.95</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2137,19 +2137,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3429</v>
+        <v>2228</v>
       </c>
       <c r="D53" t="n">
-        <v>1572.85</v>
+        <v>1574.9</v>
       </c>
       <c r="E53" t="n">
-        <v>1575.3</v>
+        <v>1575.95</v>
       </c>
       <c r="F53" t="n">
-        <v>1576.05</v>
+        <v>1576.45</v>
       </c>
       <c r="G53" t="n">
-        <v>1572.5</v>
+        <v>1574.9</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2157,12 +2157,12 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1578.95</v>
+        <v>1578.92</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2170,16 +2170,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1036</v>
+        <v>1114</v>
       </c>
       <c r="D54" t="n">
-        <v>3983</v>
+        <v>3980</v>
       </c>
       <c r="E54" t="n">
-        <v>3980</v>
+        <v>3981.45</v>
       </c>
       <c r="F54" t="n">
-        <v>3988.2</v>
+        <v>3985.2</v>
       </c>
       <c r="G54" t="n">
         <v>3980</v>
@@ -2190,12 +2190,12 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3984.91</v>
+        <v>3984.83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1763</v>
+        <v>537</v>
       </c>
       <c r="D55" t="n">
-        <v>623.35</v>
+        <v>623.15</v>
       </c>
       <c r="E55" t="n">
-        <v>623.15</v>
+        <v>623.5</v>
       </c>
       <c r="F55" t="n">
-        <v>624.7</v>
+        <v>624</v>
       </c>
       <c r="G55" t="n">
         <v>623.15</v>
@@ -2223,12 +2223,12 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>623.88</v>
+        <v>623.87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>48658</v>
+        <v>17911</v>
       </c>
       <c r="D56" t="n">
-        <v>1101.55</v>
+        <v>1102.75</v>
       </c>
       <c r="E56" t="n">
-        <v>1102.15</v>
+        <v>1103.15</v>
       </c>
       <c r="F56" t="n">
-        <v>1103.65</v>
+        <v>1103.15</v>
       </c>
       <c r="G56" t="n">
-        <v>1101.5</v>
+        <v>1102</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2256,12 +2256,12 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1094.17</v>
+        <v>1094.41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2269,19 +2269,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3768</v>
+        <v>3577</v>
       </c>
       <c r="D57" t="n">
-        <v>8460.799999999999</v>
+        <v>8465.299999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>8465</v>
+        <v>8475.450000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>8472.5</v>
+        <v>8475.549999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>8460</v>
+        <v>8465.299999999999</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2289,12 +2289,12 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8429.469999999999</v>
+        <v>8430.799999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2302,19 +2302,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3466</v>
+        <v>404</v>
       </c>
       <c r="D58" t="n">
-        <v>2837.55</v>
+        <v>2834</v>
       </c>
       <c r="E58" t="n">
+        <v>2836</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2838.5</v>
+      </c>
+      <c r="G58" t="n">
         <v>2834</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2838.95</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2833.3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44748.18056712963</v>
+        <v>44748.18126157407</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2335,19 +2335,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>428</v>
+        <v>878</v>
       </c>
       <c r="D59" t="n">
-        <v>1047.45</v>
+        <v>1047.3</v>
       </c>
       <c r="E59" t="n">
-        <v>1047</v>
+        <v>1046.65</v>
       </c>
       <c r="F59" t="n">
-        <v>1048</v>
+        <v>1047.3</v>
       </c>
       <c r="G59" t="n">
-        <v>1047</v>
+        <v>1046.05</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>15865</v>
+        <v>15870.2</v>
       </c>
       <c r="E60" t="n">
-        <v>15870.4</v>
+        <v>15877.3</v>
       </c>
       <c r="F60" t="n">
-        <v>15881.7</v>
+        <v>15877.3</v>
       </c>
       <c r="G60" t="n">
-        <v>15865</v>
+        <v>15870.2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44748.18056712963</v>
+        <v>44748.18125</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2404,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>34109.95</v>
+        <v>34099.25</v>
       </c>
       <c r="E61" t="n">
-        <v>34099.5</v>
+        <v>34120.85</v>
       </c>
       <c r="F61" t="n">
-        <v>34138.25</v>
+        <v>34121.05</v>
       </c>
       <c r="G61" t="n">
-        <v>34099.5</v>
+        <v>34098.25</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44748.18059027778</v>
+        <v>44748.18125</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2434,16 +2434,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>477</v>
+        <v>367</v>
       </c>
       <c r="D62" t="n">
-        <v>1688.5</v>
+        <v>1687</v>
       </c>
       <c r="E62" t="n">
-        <v>1687</v>
+        <v>1688.45</v>
       </c>
       <c r="F62" t="n">
-        <v>1689.6</v>
+        <v>1689.7</v>
       </c>
       <c r="G62" t="n">
         <v>1687</v>
@@ -2454,12 +2454,12 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1691.4</v>
+        <v>1691.39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18126157407</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2467,32 +2467,32 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1225</v>
+        <v>768</v>
       </c>
       <c r="D63" t="n">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="E63" t="n">
+        <v>2202.45</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2202.95</v>
+      </c>
+      <c r="G63" t="n">
         <v>2199</v>
       </c>
-      <c r="F63" t="n">
-        <v>2203.9</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2198.05</v>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2210.64</v>
+        <v>2210.55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2500,19 +2500,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1618</v>
+        <v>1701</v>
       </c>
       <c r="D64" t="n">
-        <v>1871.9</v>
+        <v>1874.3</v>
       </c>
       <c r="E64" t="n">
-        <v>1874.3</v>
+        <v>1876.95</v>
       </c>
       <c r="F64" t="n">
-        <v>1874.4</v>
+        <v>1878</v>
       </c>
       <c r="G64" t="n">
-        <v>1870.45</v>
+        <v>1874</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2520,12 +2520,12 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1869.93</v>
+        <v>1870.09</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2533,19 +2533,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>52494</v>
+        <v>22780</v>
       </c>
       <c r="D65" t="n">
-        <v>2412.15</v>
+        <v>2413.7</v>
       </c>
       <c r="E65" t="n">
-        <v>2413.8</v>
+        <v>2414.75</v>
       </c>
       <c r="F65" t="n">
-        <v>2416.45</v>
+        <v>2415.45</v>
       </c>
       <c r="G65" t="n">
-        <v>2412</v>
+        <v>2413.55</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2423.45</v>
+        <v>2423.34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2566,32 +2566,32 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20890</v>
+        <v>19212</v>
       </c>
       <c r="D66" t="n">
-        <v>812.2</v>
+        <v>814</v>
       </c>
       <c r="E66" t="n">
+        <v>814.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>815</v>
+      </c>
+      <c r="G66" t="n">
         <v>814</v>
       </c>
-      <c r="F66" t="n">
-        <v>814</v>
-      </c>
-      <c r="G66" t="n">
-        <v>812</v>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>812.6799999999999</v>
+        <v>812.78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2599,32 +2599,32 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2669</v>
+        <v>1842</v>
       </c>
       <c r="D67" t="n">
+        <v>1121.65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1122.25</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1122.45</v>
+      </c>
+      <c r="G67" t="n">
         <v>1121.55</v>
       </c>
-      <c r="E67" t="n">
-        <v>1121.9</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1123</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1121.2</v>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1121.43</v>
+        <v>1121.44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2632,19 +2632,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40626</v>
+        <v>14954</v>
       </c>
       <c r="D68" t="n">
+        <v>477</v>
+      </c>
+      <c r="E68" t="n">
         <v>477.25</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>477.25</v>
+      </c>
+      <c r="G68" t="n">
         <v>476.95</v>
-      </c>
-      <c r="F68" t="n">
-        <v>477.55</v>
-      </c>
-      <c r="G68" t="n">
-        <v>476.75</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7428</v>
+        <v>3424</v>
       </c>
       <c r="D69" t="n">
-        <v>2009.2</v>
+        <v>2013</v>
       </c>
       <c r="E69" t="n">
-        <v>2012.25</v>
+        <v>2010.45</v>
       </c>
       <c r="F69" t="n">
-        <v>2015.6</v>
+        <v>2014</v>
       </c>
       <c r="G69" t="n">
-        <v>2009.05</v>
+        <v>2010.2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2685,12 +2685,12 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2025.41</v>
+        <v>2025.33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2698,32 +2698,32 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1268</v>
+        <v>1900</v>
       </c>
       <c r="D70" t="n">
-        <v>1292.6</v>
+        <v>1290.4</v>
       </c>
       <c r="E70" t="n">
+        <v>1291</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1292.15</v>
+      </c>
+      <c r="G70" t="n">
         <v>1290.4</v>
       </c>
-      <c r="F70" t="n">
-        <v>1292.6</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1290</v>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1284.1</v>
+        <v>1284.18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6968</v>
+        <v>1793</v>
       </c>
       <c r="D71" t="n">
-        <v>839.7</v>
+        <v>840.2</v>
       </c>
       <c r="E71" t="n">
-        <v>839.65</v>
+        <v>840.55</v>
       </c>
       <c r="F71" t="n">
-        <v>840.9</v>
+        <v>840.55</v>
       </c>
       <c r="G71" t="n">
-        <v>839.65</v>
+        <v>839.85</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2764,19 +2764,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6389</v>
+        <v>2929</v>
       </c>
       <c r="D72" t="n">
-        <v>804.6</v>
+        <v>805.95</v>
       </c>
       <c r="E72" t="n">
-        <v>805.95</v>
+        <v>806</v>
       </c>
       <c r="F72" t="n">
-        <v>806.3</v>
+        <v>806.45</v>
       </c>
       <c r="G72" t="n">
-        <v>804.6</v>
+        <v>805.55</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2784,12 +2784,12 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>805.11</v>
+        <v>805.13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18123842592</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3978</v>
+        <v>2553</v>
       </c>
       <c r="D73" t="n">
-        <v>730.8</v>
+        <v>730.75</v>
       </c>
       <c r="E73" t="n">
-        <v>730.65</v>
+        <v>731.9</v>
       </c>
       <c r="F73" t="n">
-        <v>731.6</v>
+        <v>731.9</v>
       </c>
       <c r="G73" t="n">
-        <v>730.65</v>
+        <v>730.75</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2817,12 +2817,12 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>728.29</v>
+        <v>728.36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2830,19 +2830,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>43714</v>
+        <v>24966</v>
       </c>
       <c r="D74" t="n">
-        <v>413.1</v>
+        <v>413.15</v>
       </c>
       <c r="E74" t="n">
-        <v>413.15</v>
+        <v>413.25</v>
       </c>
       <c r="F74" t="n">
-        <v>413.7</v>
+        <v>413.4</v>
       </c>
       <c r="G74" t="n">
-        <v>412.95</v>
+        <v>413.05</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2863,19 +2863,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>106159</v>
+        <v>33727</v>
       </c>
       <c r="D75" t="n">
-        <v>211.9</v>
+        <v>212</v>
       </c>
       <c r="E75" t="n">
-        <v>212</v>
+        <v>211.95</v>
       </c>
       <c r="F75" t="n">
-        <v>212.35</v>
+        <v>212.2</v>
       </c>
       <c r="G75" t="n">
-        <v>211.7</v>
+        <v>211.8</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2883,12 +2883,12 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>212.39</v>
+        <v>212.38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2896,19 +2896,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19225</v>
+        <v>10418</v>
       </c>
       <c r="D76" t="n">
-        <v>841.55</v>
+        <v>841.65</v>
       </c>
       <c r="E76" t="n">
-        <v>841.5</v>
+        <v>842.25</v>
       </c>
       <c r="F76" t="n">
         <v>842.4</v>
       </c>
       <c r="G76" t="n">
-        <v>840.8</v>
+        <v>841.55</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2916,12 +2916,12 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>844.46</v>
+        <v>844.45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2929,32 +2929,32 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9034</v>
+        <v>8628</v>
       </c>
       <c r="D77" t="n">
-        <v>3217.95</v>
+        <v>3217.8</v>
       </c>
       <c r="E77" t="n">
+        <v>3220</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3220.75</v>
+      </c>
+      <c r="G77" t="n">
         <v>3217.8</v>
       </c>
-      <c r="F77" t="n">
-        <v>3220</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3217.1</v>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3224.47</v>
+        <v>3224.37</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44748.18054398148</v>
+        <v>44748.18125</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>13836</v>
+        <v>2365</v>
       </c>
       <c r="D78" t="n">
-        <v>1009.35</v>
+        <v>1009.3</v>
       </c>
       <c r="E78" t="n">
-        <v>1008.5</v>
+        <v>1009.5</v>
       </c>
       <c r="F78" t="n">
-        <v>1010.85</v>
+        <v>1010</v>
       </c>
       <c r="G78" t="n">
-        <v>1008.5</v>
+        <v>1008.8</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2995,13 +2995,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7225</v>
+        <v>2136</v>
       </c>
       <c r="D79" t="n">
-        <v>1955.2</v>
+        <v>1953.7</v>
       </c>
       <c r="E79" t="n">
-        <v>1954.85</v>
+        <v>1955.45</v>
       </c>
       <c r="F79" t="n">
         <v>1955.5</v>
@@ -3015,12 +3015,12 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1954.21</v>
+        <v>1954.22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18135416666</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7641</v>
+        <v>2050</v>
       </c>
       <c r="D80" t="n">
-        <v>827.2</v>
+        <v>827.35</v>
       </c>
       <c r="E80" t="n">
-        <v>826.65</v>
+        <v>826.5</v>
       </c>
       <c r="F80" t="n">
-        <v>827.5</v>
+        <v>827.35</v>
       </c>
       <c r="G80" t="n">
-        <v>826</v>
+        <v>826.2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3061,19 +3061,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3907</v>
+        <v>1765</v>
       </c>
       <c r="D81" t="n">
-        <v>659.9</v>
+        <v>659.05</v>
       </c>
       <c r="E81" t="n">
-        <v>659.05</v>
+        <v>659.5</v>
       </c>
       <c r="F81" t="n">
-        <v>659.9</v>
+        <v>659.65</v>
       </c>
       <c r="G81" t="n">
-        <v>659</v>
+        <v>658.9</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>658</v>
+        <v>658.01</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3094,19 +3094,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>73866</v>
+        <v>64838</v>
       </c>
       <c r="D82" t="n">
-        <v>207.8</v>
+        <v>207.7</v>
       </c>
       <c r="E82" t="n">
-        <v>207.7</v>
+        <v>208.1</v>
       </c>
       <c r="F82" t="n">
         <v>208.1</v>
       </c>
       <c r="G82" t="n">
-        <v>207.55</v>
+        <v>207.5</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3114,12 +3114,12 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>210.09</v>
+        <v>210.06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3127,19 +3127,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1342</v>
+        <v>799</v>
       </c>
       <c r="D83" t="n">
-        <v>962</v>
+        <v>961.05</v>
       </c>
       <c r="E83" t="n">
-        <v>961.05</v>
+        <v>961</v>
       </c>
       <c r="F83" t="n">
-        <v>962.8</v>
+        <v>961.75</v>
       </c>
       <c r="G83" t="n">
-        <v>960.65</v>
+        <v>960.8</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18125</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3160,16 +3160,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>30555</v>
+        <v>14643</v>
       </c>
       <c r="D84" t="n">
-        <v>415.4</v>
+        <v>415.45</v>
       </c>
       <c r="E84" t="n">
-        <v>415.45</v>
+        <v>415.7</v>
       </c>
       <c r="F84" t="n">
-        <v>416.15</v>
+        <v>415.7</v>
       </c>
       <c r="G84" t="n">
         <v>415.3</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44748.18055555555</v>
+        <v>44748.18128472222</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3193,16 +3193,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>16962</v>
+        <v>1126</v>
       </c>
       <c r="D85" t="n">
         <v>214.75</v>
       </c>
       <c r="E85" t="n">
-        <v>214.6</v>
+        <v>214.7</v>
       </c>
       <c r="F85" t="n">
-        <v>215.2</v>
+        <v>214.75</v>
       </c>
       <c r="G85" t="n">
         <v>214.6</v>

--- a/day_data/2022-07-06_1MIN.xlsx
+++ b/day_data/2022-07-06_1MIN.xlsx
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -454,19 +454,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" t="n">
-        <v>2165.8</v>
+        <v>2166</v>
       </c>
       <c r="E2" t="n">
-        <v>2167.2</v>
+        <v>2165.95</v>
       </c>
       <c r="F2" t="n">
-        <v>2167.2</v>
+        <v>2166</v>
       </c>
       <c r="G2" t="n">
-        <v>2165.8</v>
+        <v>2165.4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -474,12 +474,12 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2160.88</v>
+        <v>2162.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1346</v>
+        <v>752</v>
       </c>
       <c r="D3" t="n">
-        <v>2255.05</v>
+        <v>2262</v>
       </c>
       <c r="E3" t="n">
-        <v>2256.8</v>
+        <v>2259.55</v>
       </c>
       <c r="F3" t="n">
-        <v>2257.95</v>
+        <v>2262</v>
       </c>
       <c r="G3" t="n">
-        <v>2254.7</v>
+        <v>2258.7</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -507,12 +507,12 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2253.8</v>
+        <v>2254.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -520,19 +520,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14078</v>
+        <v>12295</v>
       </c>
       <c r="D4" t="n">
-        <v>682.95</v>
+        <v>685.2</v>
       </c>
       <c r="E4" t="n">
-        <v>682.8</v>
+        <v>684.7</v>
       </c>
       <c r="F4" t="n">
-        <v>682.95</v>
+        <v>685.25</v>
       </c>
       <c r="G4" t="n">
-        <v>682.1</v>
+        <v>684.15</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -540,12 +540,12 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>682.11</v>
+        <v>682.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44748.18126157407</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -553,19 +553,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>971</v>
+        <v>510</v>
       </c>
       <c r="D5" t="n">
-        <v>368.05</v>
+        <v>368.25</v>
       </c>
       <c r="E5" t="n">
-        <v>368.15</v>
+        <v>368.25</v>
       </c>
       <c r="F5" t="n">
-        <v>368.25</v>
+        <v>368.35</v>
       </c>
       <c r="G5" t="n">
-        <v>368.05</v>
+        <v>368.1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>367.9</v>
+        <v>368.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>846</v>
+        <v>4832</v>
       </c>
       <c r="D6" t="n">
-        <v>3804.45</v>
+        <v>3823.9</v>
       </c>
       <c r="E6" t="n">
-        <v>3807.3</v>
+        <v>3837.15</v>
       </c>
       <c r="F6" t="n">
-        <v>3807.3</v>
+        <v>3839.55</v>
       </c>
       <c r="G6" t="n">
-        <v>3802.85</v>
+        <v>3823.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3808.5</v>
+        <v>3810.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12131</v>
+        <v>3695</v>
       </c>
       <c r="D7" t="n">
-        <v>2825</v>
+        <v>2844</v>
       </c>
       <c r="E7" t="n">
-        <v>2825</v>
+        <v>2844.75</v>
       </c>
       <c r="F7" t="n">
-        <v>2826</v>
+        <v>2845</v>
       </c>
       <c r="G7" t="n">
-        <v>2823.25</v>
+        <v>2843.7</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -639,12 +639,12 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2838.52</v>
+        <v>2838.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>652</v>
+        <v>962</v>
       </c>
       <c r="D8" t="n">
-        <v>568.45</v>
+        <v>568.8</v>
       </c>
       <c r="E8" t="n">
-        <v>568.35</v>
+        <v>568.7</v>
       </c>
       <c r="F8" t="n">
-        <v>568.5</v>
+        <v>568.8</v>
       </c>
       <c r="G8" t="n">
-        <v>568.15</v>
+        <v>568.6</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -672,12 +672,12 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>567.28</v>
+        <v>567.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44748.18126157407</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -685,19 +685,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1118</v>
+        <v>746</v>
       </c>
       <c r="D9" t="n">
-        <v>536.8</v>
+        <v>538.65</v>
       </c>
       <c r="E9" t="n">
-        <v>537</v>
+        <v>538.5</v>
       </c>
       <c r="F9" t="n">
-        <v>537</v>
+        <v>538.65</v>
       </c>
       <c r="G9" t="n">
-        <v>536.75</v>
+        <v>538.35</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -705,12 +705,12 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>535.28</v>
+        <v>535.8099999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -718,19 +718,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36091</v>
+        <v>6219</v>
       </c>
       <c r="D10" t="n">
-        <v>656.85</v>
+        <v>656.25</v>
       </c>
       <c r="E10" t="n">
-        <v>657.9</v>
+        <v>655.95</v>
       </c>
       <c r="F10" t="n">
-        <v>657.9</v>
+        <v>656.4</v>
       </c>
       <c r="G10" t="n">
-        <v>656.85</v>
+        <v>655.8</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -738,12 +738,12 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>655.75</v>
+        <v>655.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>537</v>
+        <v>244</v>
       </c>
       <c r="D11" t="n">
-        <v>3703.95</v>
+        <v>3713.7</v>
       </c>
       <c r="E11" t="n">
-        <v>3702</v>
+        <v>3711.6</v>
       </c>
       <c r="F11" t="n">
-        <v>3704.1</v>
+        <v>3713.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3702</v>
+        <v>3711.6</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -771,12 +771,12 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3695.82</v>
+        <v>3700.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4333</v>
+        <v>19203</v>
       </c>
       <c r="D12" t="n">
-        <v>5800</v>
+        <v>5834.7</v>
       </c>
       <c r="E12" t="n">
-        <v>5801.1</v>
+        <v>5840.05</v>
       </c>
       <c r="F12" t="n">
-        <v>5805</v>
+        <v>5843.45</v>
       </c>
       <c r="G12" t="n">
-        <v>5800</v>
+        <v>5833.05</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -804,12 +804,12 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5779.83</v>
+        <v>5787.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44748.18127314815</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -817,19 +817,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9700</v>
+        <v>5100</v>
       </c>
       <c r="D13" t="n">
-        <v>34153.15</v>
+        <v>34134.45</v>
       </c>
       <c r="E13" t="n">
-        <v>34170</v>
+        <v>34122.6</v>
       </c>
       <c r="F13" t="n">
-        <v>34170</v>
+        <v>34134.45</v>
       </c>
       <c r="G13" t="n">
-        <v>34153.15</v>
+        <v>34117.25</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -837,12 +837,12 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>34108.74</v>
+        <v>34112.88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44748.18126157407</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>220</v>
+        <v>2626</v>
       </c>
       <c r="D14" t="n">
-        <v>1743.45</v>
+        <v>1753.3</v>
       </c>
       <c r="E14" t="n">
-        <v>1741.6</v>
+        <v>1751</v>
       </c>
       <c r="F14" t="n">
-        <v>1743.45</v>
+        <v>1755</v>
       </c>
       <c r="G14" t="n">
-        <v>1741.6</v>
+        <v>1750.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -870,12 +870,12 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1739.17</v>
+        <v>1743.42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -883,19 +883,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7543</v>
+        <v>1539</v>
       </c>
       <c r="D15" t="n">
-        <v>655.6</v>
+        <v>657.35</v>
       </c>
       <c r="E15" t="n">
-        <v>656.65</v>
+        <v>657.15</v>
       </c>
       <c r="F15" t="n">
-        <v>656.65</v>
+        <v>657.65</v>
       </c>
       <c r="G15" t="n">
-        <v>655.6</v>
+        <v>657.15</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -903,12 +903,12 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>655.6799999999999</v>
+        <v>656.0700000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -916,19 +916,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12192</v>
+        <v>22042</v>
       </c>
       <c r="D16" t="n">
-        <v>688.05</v>
+        <v>688.55</v>
       </c>
       <c r="E16" t="n">
-        <v>688.75</v>
+        <v>687.75</v>
       </c>
       <c r="F16" t="n">
-        <v>688.8</v>
+        <v>688.6</v>
       </c>
       <c r="G16" t="n">
-        <v>688.05</v>
+        <v>687.25</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -936,12 +936,12 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>687.35</v>
+        <v>687.66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44748.18127314815</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -949,19 +949,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1673</v>
+        <v>4674</v>
       </c>
       <c r="D17" t="n">
-        <v>315.25</v>
+        <v>317.35</v>
       </c>
       <c r="E17" t="n">
-        <v>315.5</v>
+        <v>317.25</v>
       </c>
       <c r="F17" t="n">
-        <v>315.65</v>
+        <v>317.35</v>
       </c>
       <c r="G17" t="n">
-        <v>315.25</v>
+        <v>317.2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>315.71</v>
+        <v>315.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -982,19 +982,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3720</v>
+        <v>4798</v>
       </c>
       <c r="D18" t="n">
-        <v>317.75</v>
+        <v>316</v>
       </c>
       <c r="E18" t="n">
-        <v>317.8</v>
+        <v>315.85</v>
       </c>
       <c r="F18" t="n">
-        <v>317.85</v>
+        <v>316</v>
       </c>
       <c r="G18" t="n">
-        <v>317.65</v>
+        <v>315.6</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1002,12 +1002,12 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>318.33</v>
+        <v>318.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1015,19 +1015,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8958</v>
+        <v>3268</v>
       </c>
       <c r="D19" t="n">
-        <v>643</v>
+        <v>643.75</v>
       </c>
       <c r="E19" t="n">
-        <v>642.9</v>
+        <v>644.05</v>
       </c>
       <c r="F19" t="n">
-        <v>643.2</v>
+        <v>644.3</v>
       </c>
       <c r="G19" t="n">
-        <v>642</v>
+        <v>643.45</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1035,12 +1035,12 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>646.84</v>
+        <v>646.42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4316</v>
+        <v>1392</v>
       </c>
       <c r="D20" t="n">
-        <v>937.45</v>
+        <v>940.2</v>
       </c>
       <c r="E20" t="n">
-        <v>937.8</v>
+        <v>940.25</v>
       </c>
       <c r="F20" t="n">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="G20" t="n">
-        <v>937</v>
+        <v>940.2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1068,12 +1068,12 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>936.27</v>
+        <v>937.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23581</v>
+        <v>25375</v>
       </c>
       <c r="D21" t="n">
-        <v>178.75</v>
+        <v>179</v>
       </c>
       <c r="E21" t="n">
-        <v>178.9</v>
+        <v>179</v>
       </c>
       <c r="F21" t="n">
-        <v>179</v>
+        <v>179.05</v>
       </c>
       <c r="G21" t="n">
         <v>178.75</v>
@@ -1101,12 +1101,12 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>179.51</v>
+        <v>179.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1114,19 +1114,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1545</v>
+        <v>317</v>
       </c>
       <c r="D22" t="n">
-        <v>3535</v>
+        <v>3540.4</v>
       </c>
       <c r="E22" t="n">
-        <v>3531.05</v>
+        <v>3542.2</v>
       </c>
       <c r="F22" t="n">
-        <v>3539.2</v>
+        <v>3545</v>
       </c>
       <c r="G22" t="n">
-        <v>3531.05</v>
+        <v>3540.4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1134,12 +1134,12 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3548.92</v>
+        <v>3548.24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1147,19 +1147,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10041</v>
+        <v>2522</v>
       </c>
       <c r="D23" t="n">
-        <v>526.95</v>
+        <v>528.65</v>
       </c>
       <c r="E23" t="n">
-        <v>525.55</v>
+        <v>529</v>
       </c>
       <c r="F23" t="n">
-        <v>527.3</v>
+        <v>529</v>
       </c>
       <c r="G23" t="n">
-        <v>525.5</v>
+        <v>528.65</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1167,12 +1167,12 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>525.39</v>
+        <v>525.86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44748.18127314815</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>71</v>
+        <v>475</v>
       </c>
       <c r="D24" t="n">
-        <v>3620.25</v>
+        <v>3632</v>
       </c>
       <c r="E24" t="n">
-        <v>3620</v>
+        <v>3632.95</v>
       </c>
       <c r="F24" t="n">
-        <v>3620.25</v>
+        <v>3632.95</v>
       </c>
       <c r="G24" t="n">
-        <v>3619.05</v>
+        <v>3629.65</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1200,12 +1200,12 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3616.75</v>
+        <v>3618.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1213,19 +1213,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9694</v>
+        <v>4561</v>
       </c>
       <c r="D25" t="n">
-        <v>325.3</v>
+        <v>325.4</v>
       </c>
       <c r="E25" t="n">
-        <v>325.55</v>
+        <v>325.35</v>
       </c>
       <c r="F25" t="n">
-        <v>325.55</v>
+        <v>325.5</v>
       </c>
       <c r="G25" t="n">
-        <v>325.3</v>
+        <v>325.15</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>324.68</v>
+        <v>324.79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1246,19 +1246,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="D26" t="n">
-        <v>4412.6</v>
+        <v>4419.9</v>
       </c>
       <c r="E26" t="n">
-        <v>4417.3</v>
+        <v>4419.7</v>
       </c>
       <c r="F26" t="n">
-        <v>4417.3</v>
+        <v>4420.7</v>
       </c>
       <c r="G26" t="n">
-        <v>4412.6</v>
+        <v>4418.4</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1266,12 +1266,12 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4414.85</v>
+        <v>4415.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1279,19 +1279,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3515</v>
+        <v>1766</v>
       </c>
       <c r="D27" t="n">
-        <v>2876</v>
+        <v>2884.9</v>
       </c>
       <c r="E27" t="n">
-        <v>2878.3</v>
+        <v>2884.75</v>
       </c>
       <c r="F27" t="n">
-        <v>2879.85</v>
+        <v>2885</v>
       </c>
       <c r="G27" t="n">
-        <v>2873.25</v>
+        <v>2883.5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1299,12 +1299,12 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2862.24</v>
+        <v>2867.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3832</v>
+        <v>5222</v>
       </c>
       <c r="D28" t="n">
-        <v>835.35</v>
+        <v>838</v>
       </c>
       <c r="E28" t="n">
-        <v>835.35</v>
+        <v>838.05</v>
       </c>
       <c r="F28" t="n">
-        <v>835.9</v>
+        <v>838.5</v>
       </c>
       <c r="G28" t="n">
-        <v>834.55</v>
+        <v>837.75</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1332,12 +1332,12 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>834.09</v>
+        <v>834.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1345,19 +1345,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>525</v>
+        <v>366</v>
       </c>
       <c r="D29" t="n">
-        <v>1237.25</v>
+        <v>1236.6</v>
       </c>
       <c r="E29" t="n">
-        <v>1236.8</v>
+        <v>1236.4</v>
       </c>
       <c r="F29" t="n">
-        <v>1237.25</v>
+        <v>1236.6</v>
       </c>
       <c r="G29" t="n">
-        <v>1236.35</v>
+        <v>1236.3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1365,12 +1365,12 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1237.09</v>
+        <v>1237.07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2109</v>
+        <v>3753</v>
       </c>
       <c r="D30" t="n">
-        <v>1353</v>
+        <v>1360.6</v>
       </c>
       <c r="E30" t="n">
-        <v>1353</v>
+        <v>1362.65</v>
       </c>
       <c r="F30" t="n">
-        <v>1354.6</v>
+        <v>1362.9</v>
       </c>
       <c r="G30" t="n">
-        <v>1352.45</v>
+        <v>1360.35</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1398,12 +1398,12 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1352.68</v>
+        <v>1354.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1411,19 +1411,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1676</v>
+        <v>4882</v>
       </c>
       <c r="D31" t="n">
-        <v>1172.6</v>
+        <v>1181.3</v>
       </c>
       <c r="E31" t="n">
-        <v>1173.95</v>
+        <v>1181.9</v>
       </c>
       <c r="F31" t="n">
-        <v>1174</v>
+        <v>1182.5</v>
       </c>
       <c r="G31" t="n">
-        <v>1172.6</v>
+        <v>1181.3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1431,12 +1431,12 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1174.18</v>
+        <v>1174.87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2089</v>
+        <v>1456</v>
       </c>
       <c r="D32" t="n">
-        <v>983.95</v>
+        <v>985.45</v>
       </c>
       <c r="E32" t="n">
-        <v>984.3</v>
+        <v>984.7</v>
       </c>
       <c r="F32" t="n">
-        <v>984.8</v>
+        <v>985.45</v>
       </c>
       <c r="G32" t="n">
-        <v>983.95</v>
+        <v>984.35</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1464,12 +1464,12 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>984.51</v>
+        <v>984.61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7630</v>
+        <v>6000</v>
       </c>
       <c r="D33" t="n">
-        <v>2219.6</v>
+        <v>2221</v>
       </c>
       <c r="E33" t="n">
-        <v>2220.7</v>
+        <v>2217.65</v>
       </c>
       <c r="F33" t="n">
-        <v>2221.9</v>
+        <v>2221.6</v>
       </c>
       <c r="G33" t="n">
-        <v>2219.4</v>
+        <v>2217</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1497,12 +1497,12 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2210.94</v>
+        <v>2212.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6727</v>
+        <v>5662</v>
       </c>
       <c r="D34" t="n">
-        <v>1360.35</v>
+        <v>1359.85</v>
       </c>
       <c r="E34" t="n">
-        <v>1360.9</v>
+        <v>1359.4</v>
       </c>
       <c r="F34" t="n">
-        <v>1361.2</v>
+        <v>1359.85</v>
       </c>
       <c r="G34" t="n">
-        <v>1360.35</v>
+        <v>1359.4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1530,12 +1530,12 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1357.49</v>
+        <v>1357.68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1543,19 +1543,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10267</v>
+        <v>2024</v>
       </c>
       <c r="D35" t="n">
-        <v>571.5</v>
+        <v>570.55</v>
       </c>
       <c r="E35" t="n">
-        <v>571.3</v>
+        <v>570.85</v>
       </c>
       <c r="F35" t="n">
-        <v>571.9</v>
+        <v>570.85</v>
       </c>
       <c r="G35" t="n">
-        <v>571.25</v>
+        <v>570.2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1563,12 +1563,12 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>568.5</v>
+        <v>568.9299999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2251</v>
+        <v>828</v>
       </c>
       <c r="D36" t="n">
-        <v>2776.9</v>
+        <v>2791.55</v>
       </c>
       <c r="E36" t="n">
-        <v>2784.45</v>
+        <v>2792.85</v>
       </c>
       <c r="F36" t="n">
-        <v>2784.45</v>
+        <v>2794</v>
       </c>
       <c r="G36" t="n">
-        <v>2776.9</v>
+        <v>2791.55</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1596,12 +1596,12 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2771.12</v>
+        <v>2792.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1609,19 +1609,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34675</v>
+        <v>64513</v>
       </c>
       <c r="D37" t="n">
-        <v>329.7</v>
+        <v>329.1</v>
       </c>
       <c r="E37" t="n">
-        <v>329.7</v>
+        <v>329.5</v>
       </c>
       <c r="F37" t="n">
-        <v>329.75</v>
+        <v>329.6</v>
       </c>
       <c r="G37" t="n">
-        <v>329.5</v>
+        <v>329</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1629,12 +1629,12 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>331.42</v>
+        <v>331.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44748.18126157407</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1642,19 +1642,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>35695</v>
+        <v>19148</v>
       </c>
       <c r="D38" t="n">
-        <v>229.9</v>
+        <v>229.8</v>
       </c>
       <c r="E38" t="n">
-        <v>229.9</v>
+        <v>229.35</v>
       </c>
       <c r="F38" t="n">
-        <v>230</v>
+        <v>229.8</v>
       </c>
       <c r="G38" t="n">
-        <v>229.85</v>
+        <v>229.35</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1662,12 +1662,12 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>231.16</v>
+        <v>230.97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1675,19 +1675,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11034</v>
+        <v>18421</v>
       </c>
       <c r="D39" t="n">
-        <v>2429.6</v>
+        <v>2440.75</v>
       </c>
       <c r="E39" t="n">
-        <v>2430.5</v>
+        <v>2440.55</v>
       </c>
       <c r="F39" t="n">
-        <v>2431.75</v>
+        <v>2441.05</v>
       </c>
       <c r="G39" t="n">
-        <v>2426.65</v>
+        <v>2439.05</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1695,12 +1695,12 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2415.86</v>
+        <v>2422.01</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21992</v>
+        <v>21069</v>
       </c>
       <c r="D40" t="n">
-        <v>725.75</v>
+        <v>722.75</v>
       </c>
       <c r="E40" t="n">
-        <v>725.85</v>
+        <v>722.25</v>
       </c>
       <c r="F40" t="n">
-        <v>726</v>
+        <v>722.95</v>
       </c>
       <c r="G40" t="n">
-        <v>725.55</v>
+        <v>722.25</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1728,12 +1728,12 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>724.33</v>
+        <v>724.24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44748.18129629629</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1741,19 +1741,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3420</v>
+        <v>1666</v>
       </c>
       <c r="D41" t="n">
-        <v>501.4</v>
+        <v>500.75</v>
       </c>
       <c r="E41" t="n">
-        <v>501.85</v>
+        <v>500.8</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9</v>
+        <v>500.8</v>
       </c>
       <c r="G41" t="n">
-        <v>501.4</v>
+        <v>500.35</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1761,12 +1761,12 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>499.35</v>
+        <v>499.65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44748.18127314815</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2657</v>
+        <v>1818</v>
       </c>
       <c r="D42" t="n">
-        <v>360.7</v>
+        <v>360.75</v>
       </c>
       <c r="E42" t="n">
-        <v>360.85</v>
+        <v>360.6</v>
       </c>
       <c r="F42" t="n">
-        <v>361</v>
+        <v>360.95</v>
       </c>
       <c r="G42" t="n">
-        <v>360.5</v>
+        <v>360.55</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1794,12 +1794,12 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>360.11</v>
+        <v>360.33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1807,19 +1807,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4277</v>
+        <v>1038</v>
       </c>
       <c r="D43" t="n">
-        <v>1670</v>
+        <v>1663.55</v>
       </c>
       <c r="E43" t="n">
-        <v>1668</v>
+        <v>1663.5</v>
       </c>
       <c r="F43" t="n">
-        <v>1670</v>
+        <v>1663.75</v>
       </c>
       <c r="G43" t="n">
-        <v>1667.2</v>
+        <v>1662.6</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1827,12 +1827,12 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1676.09</v>
+        <v>1675.14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18891203704</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2325</v>
+        <v>1123</v>
       </c>
       <c r="D44" t="n">
-        <v>828.35</v>
+        <v>828.5</v>
       </c>
       <c r="E44" t="n">
-        <v>829.65</v>
+        <v>828.2</v>
       </c>
       <c r="F44" t="n">
-        <v>829.7</v>
+        <v>828.5</v>
       </c>
       <c r="G44" t="n">
-        <v>828.35</v>
+        <v>828</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1860,12 +1860,12 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>831.5599999999999</v>
+        <v>831.39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1873,19 +1873,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11057</v>
+        <v>26821</v>
       </c>
       <c r="D45" t="n">
-        <v>1478.05</v>
+        <v>1472.75</v>
       </c>
       <c r="E45" t="n">
-        <v>1477.55</v>
+        <v>1470.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1479.1</v>
+        <v>1473.25</v>
       </c>
       <c r="G45" t="n">
-        <v>1477.55</v>
+        <v>1470.8</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1893,12 +1893,12 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1481.97</v>
+        <v>1480.93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>11651</v>
+        <v>4119</v>
       </c>
       <c r="D46" t="n">
-        <v>562.15</v>
+        <v>562.75</v>
       </c>
       <c r="E46" t="n">
+        <v>562.1</v>
+      </c>
+      <c r="F46" t="n">
         <v>562.8</v>
       </c>
-      <c r="F46" t="n">
-        <v>563</v>
-      </c>
       <c r="G46" t="n">
-        <v>562.05</v>
+        <v>562</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1926,12 +1926,12 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>563.08</v>
+        <v>563.22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1939,19 +1939,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>22331</v>
+        <v>31112</v>
       </c>
       <c r="D47" t="n">
-        <v>287.9</v>
+        <v>286.25</v>
       </c>
       <c r="E47" t="n">
-        <v>287.8</v>
+        <v>286.3</v>
       </c>
       <c r="F47" t="n">
-        <v>287.95</v>
+        <v>286.4</v>
       </c>
       <c r="G47" t="n">
-        <v>287.75</v>
+        <v>286.15</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1959,12 +1959,12 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>287.75</v>
+        <v>287.66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1972,19 +1972,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8061</v>
+        <v>2591</v>
       </c>
       <c r="D48" t="n">
-        <v>323.7</v>
+        <v>323.65</v>
       </c>
       <c r="E48" t="n">
-        <v>323.9</v>
+        <v>323.6</v>
       </c>
       <c r="F48" t="n">
         <v>323.9</v>
       </c>
       <c r="G48" t="n">
-        <v>323.55</v>
+        <v>323.5</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1992,12 +1992,12 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>325.66</v>
+        <v>325.46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2005,19 +2005,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5016</v>
+        <v>2791</v>
       </c>
       <c r="D49" t="n">
+        <v>543.9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>543.85</v>
+      </c>
+      <c r="F49" t="n">
         <v>544.1</v>
       </c>
-      <c r="E49" t="n">
-        <v>544.35</v>
-      </c>
-      <c r="F49" t="n">
-        <v>544.7</v>
-      </c>
       <c r="G49" t="n">
-        <v>543.8</v>
+        <v>543.35</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2025,12 +2025,12 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>545.41</v>
+        <v>545.28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2038,19 +2038,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8721</v>
+        <v>1035</v>
       </c>
       <c r="D50" t="n">
-        <v>545.4</v>
+        <v>550.45</v>
       </c>
       <c r="E50" t="n">
-        <v>545.95</v>
+        <v>550.2</v>
       </c>
       <c r="F50" t="n">
-        <v>546</v>
+        <v>550.65</v>
       </c>
       <c r="G50" t="n">
-        <v>545.4</v>
+        <v>550.2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2058,12 +2058,12 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>550.98</v>
+        <v>550.72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3110</v>
+        <v>1842</v>
       </c>
       <c r="D51" t="n">
-        <v>1678.7</v>
+        <v>1681.85</v>
       </c>
       <c r="E51" t="n">
-        <v>1680</v>
+        <v>1682.8</v>
       </c>
       <c r="F51" t="n">
-        <v>1680.1</v>
+        <v>1682.8</v>
       </c>
       <c r="G51" t="n">
-        <v>1678.25</v>
+        <v>1681.6</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2091,12 +2091,12 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1676.54</v>
+        <v>1676.93</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>242</v>
+        <v>2425</v>
       </c>
       <c r="D52" t="n">
-        <v>341.95</v>
+        <v>342.1</v>
       </c>
       <c r="E52" t="n">
-        <v>342.05</v>
+        <v>342.25</v>
       </c>
       <c r="F52" t="n">
-        <v>342.15</v>
+        <v>342.35</v>
       </c>
       <c r="G52" t="n">
-        <v>341.95</v>
+        <v>342.1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2124,12 +2124,12 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>341.42</v>
+        <v>341.48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2137,19 +2137,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2228</v>
+        <v>1801</v>
       </c>
       <c r="D53" t="n">
-        <v>1574.9</v>
+        <v>1567.85</v>
       </c>
       <c r="E53" t="n">
-        <v>1575.95</v>
+        <v>1566.55</v>
       </c>
       <c r="F53" t="n">
-        <v>1576.45</v>
+        <v>1568.3</v>
       </c>
       <c r="G53" t="n">
-        <v>1574.9</v>
+        <v>1566.55</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2157,12 +2157,12 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1578.92</v>
+        <v>1578.16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2170,19 +2170,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1114</v>
+        <v>246</v>
       </c>
       <c r="D54" t="n">
-        <v>3980</v>
+        <v>3985.85</v>
       </c>
       <c r="E54" t="n">
-        <v>3981.45</v>
+        <v>3984.45</v>
       </c>
       <c r="F54" t="n">
-        <v>3985.2</v>
+        <v>3985.85</v>
       </c>
       <c r="G54" t="n">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2190,12 +2190,12 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3984.83</v>
+        <v>3985.07</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18891203704</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>537</v>
+        <v>1385</v>
       </c>
       <c r="D55" t="n">
-        <v>623.15</v>
+        <v>625.5</v>
       </c>
       <c r="E55" t="n">
-        <v>623.5</v>
+        <v>626</v>
       </c>
       <c r="F55" t="n">
-        <v>624</v>
+        <v>626.2</v>
       </c>
       <c r="G55" t="n">
-        <v>623.15</v>
+        <v>625.5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2223,12 +2223,12 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>623.87</v>
+        <v>624.0599999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17911</v>
+        <v>18225</v>
       </c>
       <c r="D56" t="n">
-        <v>1102.75</v>
+        <v>1103.5</v>
       </c>
       <c r="E56" t="n">
-        <v>1103.15</v>
+        <v>1103.8</v>
       </c>
       <c r="F56" t="n">
-        <v>1103.15</v>
+        <v>1104.55</v>
       </c>
       <c r="G56" t="n">
-        <v>1102</v>
+        <v>1102.85</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2256,12 +2256,12 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1094.41</v>
+        <v>1097.74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2269,19 +2269,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3577</v>
+        <v>1881</v>
       </c>
       <c r="D57" t="n">
-        <v>8465.299999999999</v>
+        <v>8490.049999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>8475.450000000001</v>
+        <v>8487.85</v>
       </c>
       <c r="F57" t="n">
-        <v>8475.549999999999</v>
+        <v>8490.549999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>8465.299999999999</v>
+        <v>8485</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2289,12 +2289,12 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8430.799999999999</v>
+        <v>8442.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2302,19 +2302,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>404</v>
+        <v>504</v>
       </c>
       <c r="D58" t="n">
         <v>2834</v>
       </c>
       <c r="E58" t="n">
-        <v>2836</v>
+        <v>2830.6</v>
       </c>
       <c r="F58" t="n">
-        <v>2838.5</v>
+        <v>2834</v>
       </c>
       <c r="G58" t="n">
-        <v>2834</v>
+        <v>2830.6</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2322,12 +2322,12 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2837.47</v>
+        <v>2837.36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44748.18126157407</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2335,19 +2335,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>878</v>
+        <v>1054</v>
       </c>
       <c r="D59" t="n">
-        <v>1047.3</v>
+        <v>1047.95</v>
       </c>
       <c r="E59" t="n">
-        <v>1046.65</v>
+        <v>1048.1</v>
       </c>
       <c r="F59" t="n">
-        <v>1047.3</v>
+        <v>1048.1</v>
       </c>
       <c r="G59" t="n">
-        <v>1046.05</v>
+        <v>1047.65</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2355,12 +2355,12 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1047.57</v>
+        <v>1047.59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>15870.2</v>
+        <v>15869.6</v>
       </c>
       <c r="E60" t="n">
-        <v>15877.3</v>
+        <v>15862.55</v>
       </c>
       <c r="F60" t="n">
-        <v>15877.3</v>
+        <v>15870.45</v>
       </c>
       <c r="G60" t="n">
-        <v>15870.2</v>
+        <v>15861.75</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2404,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>34099.25</v>
+        <v>34061.8</v>
       </c>
       <c r="E61" t="n">
-        <v>34120.85</v>
+        <v>34052.6</v>
       </c>
       <c r="F61" t="n">
-        <v>34121.05</v>
+        <v>34065.8</v>
       </c>
       <c r="G61" t="n">
-        <v>34098.25</v>
+        <v>34050.9</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2434,19 +2434,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>367</v>
+        <v>100</v>
       </c>
       <c r="D62" t="n">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="E62" t="n">
-        <v>1688.45</v>
+        <v>1689.55</v>
       </c>
       <c r="F62" t="n">
-        <v>1689.7</v>
+        <v>1690</v>
       </c>
       <c r="G62" t="n">
-        <v>1687</v>
+        <v>1688.4</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2454,12 +2454,12 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1691.39</v>
+        <v>1691.28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44748.18126157407</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2467,19 +2467,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>768</v>
+        <v>2104</v>
       </c>
       <c r="D63" t="n">
-        <v>2199</v>
+        <v>2208</v>
       </c>
       <c r="E63" t="n">
-        <v>2202.45</v>
+        <v>2203.65</v>
       </c>
       <c r="F63" t="n">
-        <v>2202.95</v>
+        <v>2208</v>
       </c>
       <c r="G63" t="n">
-        <v>2199</v>
+        <v>2202.1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2487,12 +2487,12 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2210.55</v>
+        <v>2210.22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2500,19 +2500,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1701</v>
+        <v>389</v>
       </c>
       <c r="D64" t="n">
-        <v>1874.3</v>
+        <v>1879.05</v>
       </c>
       <c r="E64" t="n">
-        <v>1876.95</v>
+        <v>1879.8</v>
       </c>
       <c r="F64" t="n">
-        <v>1878</v>
+        <v>1880.95</v>
       </c>
       <c r="G64" t="n">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2520,12 +2520,12 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1870.09</v>
+        <v>1871.69</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2533,19 +2533,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>22780</v>
+        <v>45414</v>
       </c>
       <c r="D65" t="n">
-        <v>2413.7</v>
+        <v>2418.35</v>
       </c>
       <c r="E65" t="n">
-        <v>2414.75</v>
+        <v>2414.15</v>
       </c>
       <c r="F65" t="n">
-        <v>2415.45</v>
+        <v>2418.6</v>
       </c>
       <c r="G65" t="n">
-        <v>2413.55</v>
+        <v>2413.25</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2423.34</v>
+        <v>2422.89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2566,19 +2566,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19212</v>
+        <v>8727</v>
       </c>
       <c r="D66" t="n">
-        <v>814</v>
+        <v>815.35</v>
       </c>
       <c r="E66" t="n">
-        <v>814.2</v>
+        <v>816.15</v>
       </c>
       <c r="F66" t="n">
-        <v>815</v>
+        <v>816.5</v>
       </c>
       <c r="G66" t="n">
-        <v>814</v>
+        <v>815.15</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2586,12 +2586,12 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>812.78</v>
+        <v>813.79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1842</v>
+        <v>1021</v>
       </c>
       <c r="D67" t="n">
-        <v>1121.65</v>
+        <v>1124.4</v>
       </c>
       <c r="E67" t="n">
-        <v>1122.25</v>
+        <v>1123.35</v>
       </c>
       <c r="F67" t="n">
-        <v>1122.45</v>
+        <v>1124.4</v>
       </c>
       <c r="G67" t="n">
-        <v>1121.55</v>
+        <v>1123.2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2619,12 +2619,12 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1121.44</v>
+        <v>1121.79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2632,19 +2632,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>14954</v>
+        <v>26034</v>
       </c>
       <c r="D68" t="n">
-        <v>477</v>
+        <v>476.45</v>
       </c>
       <c r="E68" t="n">
-        <v>477.25</v>
+        <v>476.6</v>
       </c>
       <c r="F68" t="n">
-        <v>477.25</v>
+        <v>476.9</v>
       </c>
       <c r="G68" t="n">
-        <v>476.95</v>
+        <v>476.4</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2652,12 +2652,12 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>476.19</v>
+        <v>476.27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3424</v>
+        <v>5287</v>
       </c>
       <c r="D69" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E69" t="n">
-        <v>2010.45</v>
+        <v>2014.6</v>
       </c>
       <c r="F69" t="n">
-        <v>2014</v>
+        <v>2015.75</v>
       </c>
       <c r="G69" t="n">
-        <v>2010.2</v>
+        <v>2013.05</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2685,12 +2685,12 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2025.33</v>
+        <v>2024.18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2698,19 +2698,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1900</v>
+        <v>944</v>
       </c>
       <c r="D70" t="n">
-        <v>1290.4</v>
+        <v>1288.35</v>
       </c>
       <c r="E70" t="n">
-        <v>1291</v>
+        <v>1286.9</v>
       </c>
       <c r="F70" t="n">
-        <v>1292.15</v>
+        <v>1289</v>
       </c>
       <c r="G70" t="n">
-        <v>1290.4</v>
+        <v>1286.9</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2718,12 +2718,12 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1284.18</v>
+        <v>1284.62</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18891203704</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1793</v>
+        <v>1959</v>
       </c>
       <c r="D71" t="n">
-        <v>840.2</v>
+        <v>841.2</v>
       </c>
       <c r="E71" t="n">
-        <v>840.55</v>
+        <v>841.1</v>
       </c>
       <c r="F71" t="n">
-        <v>840.55</v>
+        <v>841.5</v>
       </c>
       <c r="G71" t="n">
-        <v>839.85</v>
+        <v>841.1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2751,12 +2751,12 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>839.26</v>
+        <v>839.52</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2764,19 +2764,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2929</v>
+        <v>976</v>
       </c>
       <c r="D72" t="n">
-        <v>805.95</v>
+        <v>805.3</v>
       </c>
       <c r="E72" t="n">
-        <v>806</v>
+        <v>805.05</v>
       </c>
       <c r="F72" t="n">
-        <v>806.45</v>
+        <v>805.55</v>
       </c>
       <c r="G72" t="n">
-        <v>805.55</v>
+        <v>804.6</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2784,12 +2784,12 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>805.13</v>
+        <v>805.0599999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44748.18123842592</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2553</v>
+        <v>5673</v>
       </c>
       <c r="D73" t="n">
-        <v>730.75</v>
+        <v>734.05</v>
       </c>
       <c r="E73" t="n">
-        <v>731.9</v>
+        <v>734.5</v>
       </c>
       <c r="F73" t="n">
-        <v>731.9</v>
+        <v>734.6</v>
       </c>
       <c r="G73" t="n">
-        <v>730.75</v>
+        <v>733.55</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2817,12 +2817,12 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>728.36</v>
+        <v>729.36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2830,19 +2830,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>24966</v>
+        <v>13583</v>
       </c>
       <c r="D74" t="n">
-        <v>413.15</v>
+        <v>412.9</v>
       </c>
       <c r="E74" t="n">
-        <v>413.25</v>
+        <v>412.95</v>
       </c>
       <c r="F74" t="n">
-        <v>413.4</v>
+        <v>413</v>
       </c>
       <c r="G74" t="n">
-        <v>413.05</v>
+        <v>412.9</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2850,12 +2850,12 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>412.96</v>
+        <v>412.99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2863,19 +2863,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>33727</v>
+        <v>16569</v>
       </c>
       <c r="D75" t="n">
-        <v>212</v>
+        <v>211.35</v>
       </c>
       <c r="E75" t="n">
-        <v>211.95</v>
+        <v>211.4</v>
       </c>
       <c r="F75" t="n">
-        <v>212.2</v>
+        <v>211.45</v>
       </c>
       <c r="G75" t="n">
-        <v>211.8</v>
+        <v>211.25</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2883,12 +2883,12 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>212.38</v>
+        <v>212.28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2896,19 +2896,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10418</v>
+        <v>14609</v>
       </c>
       <c r="D76" t="n">
-        <v>841.65</v>
+        <v>840.95</v>
       </c>
       <c r="E76" t="n">
-        <v>842.25</v>
+        <v>841.25</v>
       </c>
       <c r="F76" t="n">
-        <v>842.4</v>
+        <v>841.25</v>
       </c>
       <c r="G76" t="n">
-        <v>841.55</v>
+        <v>840.5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2916,12 +2916,12 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>844.45</v>
+        <v>844.04</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2929,19 +2929,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8628</v>
+        <v>5522</v>
       </c>
       <c r="D77" t="n">
-        <v>3217.8</v>
+        <v>3212.6</v>
       </c>
       <c r="E77" t="n">
-        <v>3220</v>
+        <v>3210</v>
       </c>
       <c r="F77" t="n">
-        <v>3220.75</v>
+        <v>3212.6</v>
       </c>
       <c r="G77" t="n">
-        <v>3217.8</v>
+        <v>3210</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2949,12 +2949,12 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3224.37</v>
+        <v>3223.51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2365</v>
+        <v>4821</v>
       </c>
       <c r="D78" t="n">
-        <v>1009.3</v>
+        <v>1007.6</v>
       </c>
       <c r="E78" t="n">
-        <v>1009.5</v>
+        <v>1006.4</v>
       </c>
       <c r="F78" t="n">
-        <v>1010</v>
+        <v>1007.6</v>
       </c>
       <c r="G78" t="n">
-        <v>1008.8</v>
+        <v>1006.1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2982,12 +2982,12 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1008.62</v>
+        <v>1008.65</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2995,19 +2995,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2136</v>
+        <v>1026</v>
       </c>
       <c r="D79" t="n">
-        <v>1953.7</v>
+        <v>1957.9</v>
       </c>
       <c r="E79" t="n">
-        <v>1955.45</v>
+        <v>1957.4</v>
       </c>
       <c r="F79" t="n">
-        <v>1955.5</v>
+        <v>1959</v>
       </c>
       <c r="G79" t="n">
-        <v>1953.7</v>
+        <v>1956.6</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3015,12 +3015,12 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1954.22</v>
+        <v>1955.22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44748.18135416666</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2050</v>
+        <v>9006</v>
       </c>
       <c r="D80" t="n">
-        <v>827.35</v>
+        <v>829</v>
       </c>
       <c r="E80" t="n">
-        <v>826.5</v>
+        <v>829.25</v>
       </c>
       <c r="F80" t="n">
-        <v>827.35</v>
+        <v>830.25</v>
       </c>
       <c r="G80" t="n">
-        <v>826.2</v>
+        <v>828.65</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3048,12 +3048,12 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>827.41</v>
+        <v>827.92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3061,19 +3061,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1765</v>
+        <v>1417</v>
       </c>
       <c r="D81" t="n">
-        <v>659.05</v>
+        <v>657.6</v>
       </c>
       <c r="E81" t="n">
-        <v>659.5</v>
+        <v>657.85</v>
       </c>
       <c r="F81" t="n">
-        <v>659.65</v>
+        <v>657.9</v>
       </c>
       <c r="G81" t="n">
-        <v>658.9</v>
+        <v>657.35</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>658.01</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18890046296</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3094,19 +3094,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>64838</v>
+        <v>42134</v>
       </c>
       <c r="D82" t="n">
         <v>207.7</v>
       </c>
       <c r="E82" t="n">
-        <v>208.1</v>
+        <v>207.6</v>
       </c>
       <c r="F82" t="n">
-        <v>208.1</v>
+        <v>207.9</v>
       </c>
       <c r="G82" t="n">
-        <v>207.5</v>
+        <v>207.3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3114,12 +3114,12 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>210.06</v>
+        <v>209.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3127,19 +3127,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>799</v>
+        <v>12321</v>
       </c>
       <c r="D83" t="n">
-        <v>961.05</v>
+        <v>964.55</v>
       </c>
       <c r="E83" t="n">
-        <v>961</v>
+        <v>964.3</v>
       </c>
       <c r="F83" t="n">
-        <v>961.75</v>
+        <v>965.7</v>
       </c>
       <c r="G83" t="n">
-        <v>960.8</v>
+        <v>964</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3147,12 +3147,12 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>961.88</v>
+        <v>962.86</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44748.18125</v>
+        <v>44748.18887731482</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3160,19 +3160,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>14643</v>
+        <v>7061</v>
       </c>
       <c r="D84" t="n">
-        <v>415.45</v>
+        <v>415.85</v>
       </c>
       <c r="E84" t="n">
-        <v>415.7</v>
+        <v>415.55</v>
       </c>
       <c r="F84" t="n">
-        <v>415.7</v>
+        <v>415.85</v>
       </c>
       <c r="G84" t="n">
-        <v>415.3</v>
+        <v>415.55</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3180,12 +3180,12 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>415.62</v>
+        <v>415.65</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44748.18128472222</v>
+        <v>44748.18888888889</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3193,16 +3193,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1126</v>
+        <v>2325</v>
       </c>
       <c r="D85" t="n">
-        <v>214.75</v>
+        <v>214.95</v>
       </c>
       <c r="E85" t="n">
         <v>214.7</v>
       </c>
       <c r="F85" t="n">
-        <v>214.75</v>
+        <v>214.95</v>
       </c>
       <c r="G85" t="n">
         <v>214.6</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>214.97</v>
+        <v>214.95</v>
       </c>
     </row>
   </sheetData>

--- a/day_data/2022-07-06_1MIN.xlsx
+++ b/day_data/2022-07-06_1MIN.xlsx
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -454,19 +454,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>152</v>
+        <v>338</v>
       </c>
       <c r="D2" t="n">
-        <v>2166</v>
+        <v>2165.75</v>
       </c>
       <c r="E2" t="n">
-        <v>2165.95</v>
+        <v>2165</v>
       </c>
       <c r="F2" t="n">
-        <v>2166</v>
+        <v>2167.35</v>
       </c>
       <c r="G2" t="n">
-        <v>2165.4</v>
+        <v>2165</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -474,12 +474,12 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2162.62</v>
+        <v>2164.19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19969907407</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>752</v>
+        <v>2202</v>
       </c>
       <c r="D3" t="n">
-        <v>2262</v>
+        <v>2263.75</v>
       </c>
       <c r="E3" t="n">
-        <v>2259.55</v>
+        <v>2262.4</v>
       </c>
       <c r="F3" t="n">
-        <v>2262</v>
+        <v>2264.4</v>
       </c>
       <c r="G3" t="n">
-        <v>2258.7</v>
+        <v>2261.05</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -507,12 +507,12 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2254.84</v>
+        <v>2255.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -520,19 +520,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12295</v>
+        <v>32092</v>
       </c>
       <c r="D4" t="n">
-        <v>685.2</v>
+        <v>687.4</v>
       </c>
       <c r="E4" t="n">
-        <v>684.7</v>
+        <v>686.8</v>
       </c>
       <c r="F4" t="n">
-        <v>685.25</v>
+        <v>688.65</v>
       </c>
       <c r="G4" t="n">
-        <v>684.15</v>
+        <v>686.8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -540,12 +540,12 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>682.75</v>
+        <v>683.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -553,19 +553,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>510</v>
+        <v>1788</v>
       </c>
       <c r="D5" t="n">
-        <v>368.25</v>
+        <v>368.75</v>
       </c>
       <c r="E5" t="n">
-        <v>368.25</v>
+        <v>368.8</v>
       </c>
       <c r="F5" t="n">
-        <v>368.35</v>
+        <v>368.8</v>
       </c>
       <c r="G5" t="n">
-        <v>368.1</v>
+        <v>368.6</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>368.01</v>
+        <v>368.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4832</v>
+        <v>724</v>
       </c>
       <c r="D6" t="n">
-        <v>3823.9</v>
+        <v>3855</v>
       </c>
       <c r="E6" t="n">
-        <v>3837.15</v>
+        <v>3855</v>
       </c>
       <c r="F6" t="n">
-        <v>3839.55</v>
+        <v>3855</v>
       </c>
       <c r="G6" t="n">
-        <v>3823.9</v>
+        <v>3851.65</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3810.4</v>
+        <v>3818.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3695</v>
+        <v>3533</v>
       </c>
       <c r="D7" t="n">
-        <v>2844</v>
+        <v>2846.7</v>
       </c>
       <c r="E7" t="n">
-        <v>2844.75</v>
+        <v>2846.2</v>
       </c>
       <c r="F7" t="n">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="G7" t="n">
-        <v>2843.7</v>
+        <v>2845.85</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -639,12 +639,12 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2838.7</v>
+        <v>2839.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>962</v>
+        <v>6921</v>
       </c>
       <c r="D8" t="n">
-        <v>568.8</v>
+        <v>570.5</v>
       </c>
       <c r="E8" t="n">
-        <v>568.7</v>
+        <v>570</v>
       </c>
       <c r="F8" t="n">
-        <v>568.8</v>
+        <v>570.5</v>
       </c>
       <c r="G8" t="n">
-        <v>568.6</v>
+        <v>569.7</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -672,12 +672,12 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>567.39</v>
+        <v>567.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -685,19 +685,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>746</v>
+        <v>9435</v>
       </c>
       <c r="D9" t="n">
-        <v>538.65</v>
+        <v>540.35</v>
       </c>
       <c r="E9" t="n">
-        <v>538.5</v>
+        <v>539.9</v>
       </c>
       <c r="F9" t="n">
-        <v>538.65</v>
+        <v>540.45</v>
       </c>
       <c r="G9" t="n">
-        <v>538.35</v>
+        <v>539.6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -705,12 +705,12 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>535.8099999999999</v>
+        <v>537.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -718,19 +718,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6219</v>
+        <v>21073</v>
       </c>
       <c r="D10" t="n">
-        <v>656.25</v>
+        <v>655.35</v>
       </c>
       <c r="E10" t="n">
-        <v>655.95</v>
+        <v>655.35</v>
       </c>
       <c r="F10" t="n">
-        <v>656.4</v>
+        <v>655.7</v>
       </c>
       <c r="G10" t="n">
-        <v>655.8</v>
+        <v>655.2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -738,12 +738,12 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>655.91</v>
+        <v>655.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>244</v>
+        <v>1704</v>
       </c>
       <c r="D11" t="n">
-        <v>3713.7</v>
+        <v>3725</v>
       </c>
       <c r="E11" t="n">
-        <v>3711.6</v>
+        <v>3724.95</v>
       </c>
       <c r="F11" t="n">
-        <v>3713.7</v>
+        <v>3725.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3711.6</v>
+        <v>3722</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -771,12 +771,12 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3700.88</v>
+        <v>3704.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19203</v>
+        <v>5462</v>
       </c>
       <c r="D12" t="n">
-        <v>5834.7</v>
+        <v>5845.8</v>
       </c>
       <c r="E12" t="n">
-        <v>5840.05</v>
+        <v>5846.95</v>
       </c>
       <c r="F12" t="n">
-        <v>5843.45</v>
+        <v>5849.9</v>
       </c>
       <c r="G12" t="n">
-        <v>5833.05</v>
+        <v>5845</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -804,12 +804,12 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5787.17</v>
+        <v>5797.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.1997337963</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -817,19 +817,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5100</v>
+        <v>5450</v>
       </c>
       <c r="D13" t="n">
-        <v>34134.45</v>
+        <v>34135.7</v>
       </c>
       <c r="E13" t="n">
-        <v>34122.6</v>
+        <v>34138.5</v>
       </c>
       <c r="F13" t="n">
-        <v>34134.45</v>
+        <v>34140.5</v>
       </c>
       <c r="G13" t="n">
-        <v>34117.25</v>
+        <v>34130</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -837,12 +837,12 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>34112.88</v>
+        <v>34114.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.1997337963</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2626</v>
+        <v>1015</v>
       </c>
       <c r="D14" t="n">
-        <v>1753.3</v>
+        <v>1751</v>
       </c>
       <c r="E14" t="n">
-        <v>1751</v>
+        <v>1751.75</v>
       </c>
       <c r="F14" t="n">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="G14" t="n">
-        <v>1750.75</v>
+        <v>1750.05</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -870,12 +870,12 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1743.42</v>
+        <v>1744.51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -883,19 +883,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1539</v>
+        <v>1189</v>
       </c>
       <c r="D15" t="n">
-        <v>657.35</v>
+        <v>657.1</v>
       </c>
       <c r="E15" t="n">
+        <v>656.2</v>
+      </c>
+      <c r="F15" t="n">
         <v>657.15</v>
       </c>
-      <c r="F15" t="n">
-        <v>657.65</v>
-      </c>
       <c r="G15" t="n">
-        <v>657.15</v>
+        <v>656.2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -903,12 +903,12 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>656.0700000000001</v>
+        <v>656.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -916,19 +916,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22042</v>
+        <v>2577</v>
       </c>
       <c r="D16" t="n">
-        <v>688.55</v>
+        <v>687.7</v>
       </c>
       <c r="E16" t="n">
-        <v>687.75</v>
+        <v>687.65</v>
       </c>
       <c r="F16" t="n">
-        <v>688.6</v>
+        <v>687.7</v>
       </c>
       <c r="G16" t="n">
-        <v>687.25</v>
+        <v>687.65</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -936,12 +936,12 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>687.66</v>
+        <v>687.65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -949,19 +949,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4674</v>
+        <v>11004</v>
       </c>
       <c r="D17" t="n">
-        <v>317.35</v>
+        <v>318.5</v>
       </c>
       <c r="E17" t="n">
-        <v>317.25</v>
+        <v>318.5</v>
       </c>
       <c r="F17" t="n">
-        <v>317.35</v>
+        <v>318.8</v>
       </c>
       <c r="G17" t="n">
-        <v>317.2</v>
+        <v>318.25</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>315.95</v>
+        <v>316.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -982,19 +982,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4798</v>
+        <v>4959</v>
       </c>
       <c r="D18" t="n">
-        <v>316</v>
+        <v>315.85</v>
       </c>
       <c r="E18" t="n">
-        <v>315.85</v>
+        <v>316.3</v>
       </c>
       <c r="F18" t="n">
-        <v>316</v>
+        <v>316.3</v>
       </c>
       <c r="G18" t="n">
-        <v>315.6</v>
+        <v>315.7</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1002,12 +1002,12 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>318.12</v>
+        <v>317.98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1015,19 +1015,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3268</v>
+        <v>8163</v>
       </c>
       <c r="D19" t="n">
-        <v>643.75</v>
+        <v>643</v>
       </c>
       <c r="E19" t="n">
-        <v>644.05</v>
+        <v>643</v>
       </c>
       <c r="F19" t="n">
-        <v>644.3</v>
+        <v>643.1</v>
       </c>
       <c r="G19" t="n">
-        <v>643.45</v>
+        <v>642.9</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1035,12 +1035,12 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>646.42</v>
+        <v>645.99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1392</v>
+        <v>3227</v>
       </c>
       <c r="D20" t="n">
-        <v>940.2</v>
+        <v>942</v>
       </c>
       <c r="E20" t="n">
-        <v>940.25</v>
+        <v>941.3</v>
       </c>
       <c r="F20" t="n">
-        <v>941</v>
+        <v>942.3</v>
       </c>
       <c r="G20" t="n">
-        <v>940.2</v>
+        <v>940.75</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1068,12 +1068,12 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>937.22</v>
+        <v>937.65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1081,19 +1081,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25375</v>
+        <v>18494</v>
       </c>
       <c r="D21" t="n">
-        <v>179</v>
+        <v>178.55</v>
       </c>
       <c r="E21" t="n">
-        <v>179</v>
+        <v>178.4</v>
       </c>
       <c r="F21" t="n">
-        <v>179.05</v>
+        <v>178.55</v>
       </c>
       <c r="G21" t="n">
-        <v>178.75</v>
+        <v>178.3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1101,12 +1101,12 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>179.45</v>
+        <v>179.35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1114,19 +1114,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="D22" t="n">
-        <v>3540.4</v>
+        <v>3562.95</v>
       </c>
       <c r="E22" t="n">
-        <v>3542.2</v>
+        <v>3564</v>
       </c>
       <c r="F22" t="n">
-        <v>3545</v>
+        <v>3565</v>
       </c>
       <c r="G22" t="n">
-        <v>3540.4</v>
+        <v>3558.3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1134,12 +1134,12 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3548.24</v>
+        <v>3550.91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1147,19 +1147,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2522</v>
+        <v>3799</v>
       </c>
       <c r="D23" t="n">
-        <v>528.65</v>
+        <v>529</v>
       </c>
       <c r="E23" t="n">
-        <v>529</v>
+        <v>529.05</v>
       </c>
       <c r="F23" t="n">
-        <v>529</v>
+        <v>529.05</v>
       </c>
       <c r="G23" t="n">
-        <v>528.65</v>
+        <v>528.85</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1167,12 +1167,12 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>525.86</v>
+        <v>526.23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="D24" t="n">
-        <v>3632</v>
+        <v>3639.5</v>
       </c>
       <c r="E24" t="n">
-        <v>3632.95</v>
+        <v>3637.4</v>
       </c>
       <c r="F24" t="n">
-        <v>3632.95</v>
+        <v>3640.35</v>
       </c>
       <c r="G24" t="n">
-        <v>3629.65</v>
+        <v>3637.1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1200,12 +1200,12 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3618.56</v>
+        <v>3622.79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1213,19 +1213,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4561</v>
+        <v>3786</v>
       </c>
       <c r="D25" t="n">
-        <v>325.4</v>
+        <v>326</v>
       </c>
       <c r="E25" t="n">
-        <v>325.35</v>
+        <v>325.9</v>
       </c>
       <c r="F25" t="n">
-        <v>325.5</v>
+        <v>326</v>
       </c>
       <c r="G25" t="n">
-        <v>325.15</v>
+        <v>325.8</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>324.79</v>
+        <v>324.88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1246,19 +1246,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>182</v>
+        <v>900</v>
       </c>
       <c r="D26" t="n">
-        <v>4419.9</v>
+        <v>4432</v>
       </c>
       <c r="E26" t="n">
-        <v>4419.7</v>
+        <v>4431</v>
       </c>
       <c r="F26" t="n">
-        <v>4420.7</v>
+        <v>4434.7</v>
       </c>
       <c r="G26" t="n">
-        <v>4418.4</v>
+        <v>4430</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1266,12 +1266,12 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4415.16</v>
+        <v>4416.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1279,19 +1279,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1766</v>
+        <v>5133</v>
       </c>
       <c r="D27" t="n">
-        <v>2884.9</v>
+        <v>2894</v>
       </c>
       <c r="E27" t="n">
-        <v>2884.75</v>
+        <v>2892.3</v>
       </c>
       <c r="F27" t="n">
-        <v>2885</v>
+        <v>2895.9</v>
       </c>
       <c r="G27" t="n">
-        <v>2883.5</v>
+        <v>2890.05</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1299,12 +1299,12 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2867.11</v>
+        <v>2870.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5222</v>
+        <v>17637</v>
       </c>
       <c r="D28" t="n">
-        <v>838</v>
+        <v>843.3</v>
       </c>
       <c r="E28" t="n">
-        <v>838.05</v>
+        <v>844.45</v>
       </c>
       <c r="F28" t="n">
-        <v>838.5</v>
+        <v>844.45</v>
       </c>
       <c r="G28" t="n">
-        <v>837.75</v>
+        <v>843</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1332,12 +1332,12 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>834.7</v>
+        <v>836.1799999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1345,19 +1345,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="D29" t="n">
-        <v>1236.6</v>
+        <v>1240.7</v>
       </c>
       <c r="E29" t="n">
-        <v>1236.4</v>
+        <v>1240.05</v>
       </c>
       <c r="F29" t="n">
-        <v>1236.6</v>
+        <v>1240.7</v>
       </c>
       <c r="G29" t="n">
-        <v>1236.3</v>
+        <v>1240</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1365,12 +1365,12 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1237.07</v>
+        <v>1237.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3753</v>
+        <v>790</v>
       </c>
       <c r="D30" t="n">
-        <v>1360.6</v>
+        <v>1361.8</v>
       </c>
       <c r="E30" t="n">
-        <v>1362.65</v>
+        <v>1362</v>
       </c>
       <c r="F30" t="n">
         <v>1362.9</v>
       </c>
       <c r="G30" t="n">
-        <v>1360.35</v>
+        <v>1360.6</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1398,12 +1398,12 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1354.2</v>
+        <v>1355.23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1411,19 +1411,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4882</v>
+        <v>2689</v>
       </c>
       <c r="D31" t="n">
-        <v>1181.3</v>
+        <v>1180.75</v>
       </c>
       <c r="E31" t="n">
-        <v>1181.9</v>
+        <v>1180.6</v>
       </c>
       <c r="F31" t="n">
-        <v>1182.5</v>
+        <v>1181.95</v>
       </c>
       <c r="G31" t="n">
-        <v>1181.3</v>
+        <v>1180.6</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1431,12 +1431,12 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1174.87</v>
+        <v>1175.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1456</v>
+        <v>6908</v>
       </c>
       <c r="D32" t="n">
-        <v>985.45</v>
+        <v>987</v>
       </c>
       <c r="E32" t="n">
-        <v>984.7</v>
+        <v>987.65</v>
       </c>
       <c r="F32" t="n">
-        <v>985.45</v>
+        <v>987.85</v>
       </c>
       <c r="G32" t="n">
-        <v>984.35</v>
+        <v>986.55</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1464,12 +1464,12 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>984.61</v>
+        <v>984.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6000</v>
+        <v>16199</v>
       </c>
       <c r="D33" t="n">
-        <v>2221</v>
+        <v>2217.7</v>
       </c>
       <c r="E33" t="n">
-        <v>2217.65</v>
+        <v>2217.75</v>
       </c>
       <c r="F33" t="n">
-        <v>2221.6</v>
+        <v>2218</v>
       </c>
       <c r="G33" t="n">
         <v>2217</v>
@@ -1497,12 +1497,12 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2212.15</v>
+        <v>2212.54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5662</v>
+        <v>7719</v>
       </c>
       <c r="D34" t="n">
-        <v>1359.85</v>
+        <v>1360.4</v>
       </c>
       <c r="E34" t="n">
-        <v>1359.4</v>
+        <v>1360.3</v>
       </c>
       <c r="F34" t="n">
-        <v>1359.85</v>
+        <v>1360.4</v>
       </c>
       <c r="G34" t="n">
-        <v>1359.4</v>
+        <v>1360.1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1530,12 +1530,12 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1357.68</v>
+        <v>1357.87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1543,19 +1543,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2024</v>
+        <v>2558</v>
       </c>
       <c r="D35" t="n">
-        <v>570.55</v>
+        <v>570.15</v>
       </c>
       <c r="E35" t="n">
-        <v>570.85</v>
+        <v>569.85</v>
       </c>
       <c r="F35" t="n">
-        <v>570.85</v>
+        <v>570.3</v>
       </c>
       <c r="G35" t="n">
-        <v>570.2</v>
+        <v>569.7</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1563,12 +1563,12 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>568.9299999999999</v>
+        <v>569.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>828</v>
+        <v>769</v>
       </c>
       <c r="D36" t="n">
-        <v>2791.55</v>
+        <v>2791.25</v>
       </c>
       <c r="E36" t="n">
-        <v>2792.85</v>
+        <v>2791</v>
       </c>
       <c r="F36" t="n">
-        <v>2794</v>
+        <v>2791.8</v>
       </c>
       <c r="G36" t="n">
-        <v>2791.55</v>
+        <v>2790.55</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1596,12 +1596,12 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2792.3</v>
+        <v>2792.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1609,19 +1609,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>64513</v>
+        <v>36959</v>
       </c>
       <c r="D37" t="n">
-        <v>329.1</v>
+        <v>330.35</v>
       </c>
       <c r="E37" t="n">
-        <v>329.5</v>
+        <v>330.5</v>
       </c>
       <c r="F37" t="n">
-        <v>329.6</v>
+        <v>330.75</v>
       </c>
       <c r="G37" t="n">
-        <v>329</v>
+        <v>330.25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1629,12 +1629,12 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>331.09</v>
+        <v>330.99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1642,19 +1642,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19148</v>
+        <v>62044</v>
       </c>
       <c r="D38" t="n">
-        <v>229.8</v>
+        <v>230.7</v>
       </c>
       <c r="E38" t="n">
-        <v>229.35</v>
+        <v>230.95</v>
       </c>
       <c r="F38" t="n">
-        <v>229.8</v>
+        <v>231.05</v>
       </c>
       <c r="G38" t="n">
-        <v>229.35</v>
+        <v>230.6</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1662,12 +1662,12 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>230.97</v>
+        <v>230.85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1675,19 +1675,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>18421</v>
+        <v>22731</v>
       </c>
       <c r="D39" t="n">
-        <v>2440.75</v>
+        <v>2448.9</v>
       </c>
       <c r="E39" t="n">
-        <v>2440.55</v>
+        <v>2450.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2441.05</v>
+        <v>2451</v>
       </c>
       <c r="G39" t="n">
-        <v>2439.05</v>
+        <v>2445.7</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1695,12 +1695,12 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2422.01</v>
+        <v>2428.11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21069</v>
+        <v>18780</v>
       </c>
       <c r="D40" t="n">
-        <v>722.75</v>
+        <v>724.05</v>
       </c>
       <c r="E40" t="n">
-        <v>722.25</v>
+        <v>724.05</v>
       </c>
       <c r="F40" t="n">
-        <v>722.95</v>
+        <v>724.1</v>
       </c>
       <c r="G40" t="n">
-        <v>722.25</v>
+        <v>724</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1728,12 +1728,12 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>724.24</v>
+        <v>724.23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1741,19 +1741,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="D41" t="n">
-        <v>500.75</v>
+        <v>502.3</v>
       </c>
       <c r="E41" t="n">
-        <v>500.8</v>
+        <v>502.45</v>
       </c>
       <c r="F41" t="n">
-        <v>500.8</v>
+        <v>502.45</v>
       </c>
       <c r="G41" t="n">
-        <v>500.35</v>
+        <v>502.1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1761,12 +1761,12 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>499.65</v>
+        <v>499.87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19969907407</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1818</v>
+        <v>1390</v>
       </c>
       <c r="D42" t="n">
-        <v>360.75</v>
+        <v>359.7</v>
       </c>
       <c r="E42" t="n">
-        <v>360.6</v>
+        <v>360</v>
       </c>
       <c r="F42" t="n">
-        <v>360.95</v>
+        <v>360</v>
       </c>
       <c r="G42" t="n">
-        <v>360.55</v>
+        <v>359.6</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1794,12 +1794,12 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>360.33</v>
+        <v>360.31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1807,19 +1807,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1038</v>
+        <v>2033</v>
       </c>
       <c r="D43" t="n">
-        <v>1663.55</v>
+        <v>1656.5</v>
       </c>
       <c r="E43" t="n">
-        <v>1663.5</v>
+        <v>1655.85</v>
       </c>
       <c r="F43" t="n">
-        <v>1663.75</v>
+        <v>1656.85</v>
       </c>
       <c r="G43" t="n">
-        <v>1662.6</v>
+        <v>1654.85</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1827,12 +1827,12 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1675.14</v>
+        <v>1673.34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44748.18891203704</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1123</v>
+        <v>1979</v>
       </c>
       <c r="D44" t="n">
-        <v>828.5</v>
+        <v>828.4</v>
       </c>
       <c r="E44" t="n">
-        <v>828.2</v>
+        <v>828</v>
       </c>
       <c r="F44" t="n">
-        <v>828.5</v>
+        <v>828.55</v>
       </c>
       <c r="G44" t="n">
-        <v>828</v>
+        <v>827.65</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1860,12 +1860,12 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>831.39</v>
+        <v>831.22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1873,19 +1873,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>26821</v>
+        <v>17531</v>
       </c>
       <c r="D45" t="n">
-        <v>1472.75</v>
+        <v>1473.85</v>
       </c>
       <c r="E45" t="n">
-        <v>1470.8</v>
+        <v>1475.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1473.25</v>
+        <v>1476</v>
       </c>
       <c r="G45" t="n">
-        <v>1470.8</v>
+        <v>1473.55</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1893,12 +1893,12 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1480.93</v>
+        <v>1479.89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4119</v>
+        <v>6801</v>
       </c>
       <c r="D46" t="n">
-        <v>562.75</v>
+        <v>566.5</v>
       </c>
       <c r="E46" t="n">
-        <v>562.1</v>
+        <v>566.8</v>
       </c>
       <c r="F46" t="n">
-        <v>562.8</v>
+        <v>566.85</v>
       </c>
       <c r="G46" t="n">
-        <v>562</v>
+        <v>566.4</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1926,12 +1926,12 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>563.22</v>
+        <v>563.46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1939,19 +1939,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>31112</v>
+        <v>17186</v>
       </c>
       <c r="D47" t="n">
-        <v>286.25</v>
+        <v>286.2</v>
       </c>
       <c r="E47" t="n">
-        <v>286.3</v>
+        <v>286.1</v>
       </c>
       <c r="F47" t="n">
-        <v>286.4</v>
+        <v>286.2</v>
       </c>
       <c r="G47" t="n">
-        <v>286.15</v>
+        <v>285.9</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1959,12 +1959,12 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>287.66</v>
+        <v>287.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1972,19 +1972,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2591</v>
+        <v>6948</v>
       </c>
       <c r="D48" t="n">
-        <v>323.65</v>
+        <v>322.65</v>
       </c>
       <c r="E48" t="n">
-        <v>323.6</v>
+        <v>322.75</v>
       </c>
       <c r="F48" t="n">
-        <v>323.9</v>
+        <v>322.95</v>
       </c>
       <c r="G48" t="n">
-        <v>323.5</v>
+        <v>322.6</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1992,12 +1992,12 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>325.46</v>
+        <v>325.15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2005,16 +2005,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2791</v>
+        <v>3922</v>
       </c>
       <c r="D49" t="n">
-        <v>543.9</v>
+        <v>543.35</v>
       </c>
       <c r="E49" t="n">
-        <v>543.85</v>
+        <v>543.65</v>
       </c>
       <c r="F49" t="n">
-        <v>544.1</v>
+        <v>544</v>
       </c>
       <c r="G49" t="n">
         <v>543.35</v>
@@ -2025,12 +2025,12 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>545.28</v>
+        <v>545.14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2038,19 +2038,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1035</v>
+        <v>6858</v>
       </c>
       <c r="D50" t="n">
-        <v>550.45</v>
+        <v>554.55</v>
       </c>
       <c r="E50" t="n">
-        <v>550.2</v>
+        <v>554.65</v>
       </c>
       <c r="F50" t="n">
-        <v>550.65</v>
+        <v>554.85</v>
       </c>
       <c r="G50" t="n">
-        <v>550.2</v>
+        <v>554.05</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2058,12 +2058,12 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>550.72</v>
+        <v>551.04</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1842</v>
+        <v>4245</v>
       </c>
       <c r="D51" t="n">
-        <v>1681.85</v>
+        <v>1680.85</v>
       </c>
       <c r="E51" t="n">
-        <v>1682.8</v>
+        <v>1681</v>
       </c>
       <c r="F51" t="n">
-        <v>1682.8</v>
+        <v>1681.9</v>
       </c>
       <c r="G51" t="n">
-        <v>1681.6</v>
+        <v>1680.1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2091,12 +2091,12 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1676.93</v>
+        <v>1678.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2425</v>
+        <v>2957</v>
       </c>
       <c r="D52" t="n">
-        <v>342.1</v>
+        <v>342.5</v>
       </c>
       <c r="E52" t="n">
-        <v>342.25</v>
+        <v>342.6</v>
       </c>
       <c r="F52" t="n">
-        <v>342.35</v>
+        <v>342.75</v>
       </c>
       <c r="G52" t="n">
-        <v>342.1</v>
+        <v>342.5</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2124,12 +2124,12 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>341.48</v>
+        <v>341.69</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2137,19 +2137,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1801</v>
+        <v>2286</v>
       </c>
       <c r="D53" t="n">
-        <v>1567.85</v>
+        <v>1563.7</v>
       </c>
       <c r="E53" t="n">
-        <v>1566.55</v>
+        <v>1564.15</v>
       </c>
       <c r="F53" t="n">
-        <v>1568.3</v>
+        <v>1564.95</v>
       </c>
       <c r="G53" t="n">
-        <v>1566.55</v>
+        <v>1563.2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2157,12 +2157,12 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1578.16</v>
+        <v>1576.77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2170,19 +2170,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>246</v>
+        <v>1445</v>
       </c>
       <c r="D54" t="n">
-        <v>3985.85</v>
+        <v>4009.45</v>
       </c>
       <c r="E54" t="n">
-        <v>3984.45</v>
+        <v>4010.05</v>
       </c>
       <c r="F54" t="n">
-        <v>3985.85</v>
+        <v>4013.65</v>
       </c>
       <c r="G54" t="n">
-        <v>3981</v>
+        <v>4009.45</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2190,12 +2190,12 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3985.07</v>
+        <v>3987.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44748.18891203704</v>
+        <v>44748.1997337963</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1385</v>
+        <v>1965</v>
       </c>
       <c r="D55" t="n">
-        <v>625.5</v>
+        <v>629.55</v>
       </c>
       <c r="E55" t="n">
-        <v>626</v>
+        <v>628.65</v>
       </c>
       <c r="F55" t="n">
-        <v>626.2</v>
+        <v>629.55</v>
       </c>
       <c r="G55" t="n">
-        <v>625.5</v>
+        <v>628.55</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2223,12 +2223,12 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>624.0599999999999</v>
+        <v>624.73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18225</v>
+        <v>55830</v>
       </c>
       <c r="D56" t="n">
-        <v>1103.5</v>
+        <v>1109.45</v>
       </c>
       <c r="E56" t="n">
-        <v>1103.8</v>
+        <v>1111.5</v>
       </c>
       <c r="F56" t="n">
-        <v>1104.55</v>
+        <v>1112</v>
       </c>
       <c r="G56" t="n">
-        <v>1102.85</v>
+        <v>1109.2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2256,12 +2256,12 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1097.74</v>
+        <v>1100.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2269,19 +2269,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1881</v>
+        <v>7316</v>
       </c>
       <c r="D57" t="n">
-        <v>8490.049999999999</v>
+        <v>8518</v>
       </c>
       <c r="E57" t="n">
-        <v>8487.85</v>
+        <v>8500.1</v>
       </c>
       <c r="F57" t="n">
-        <v>8490.549999999999</v>
+        <v>8518.1</v>
       </c>
       <c r="G57" t="n">
-        <v>8485</v>
+        <v>8498.049999999999</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2289,12 +2289,12 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8442.9</v>
+        <v>8459.49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2302,19 +2302,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>504</v>
+        <v>1924</v>
       </c>
       <c r="D58" t="n">
-        <v>2834</v>
+        <v>2850</v>
       </c>
       <c r="E58" t="n">
-        <v>2830.6</v>
+        <v>2848.55</v>
       </c>
       <c r="F58" t="n">
-        <v>2834</v>
+        <v>2850.05</v>
       </c>
       <c r="G58" t="n">
-        <v>2830.6</v>
+        <v>2848.25</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2322,12 +2322,12 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2837.36</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19975694444</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2335,19 +2335,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1054</v>
+        <v>669</v>
       </c>
       <c r="D59" t="n">
-        <v>1047.95</v>
+        <v>1048.1</v>
       </c>
       <c r="E59" t="n">
-        <v>1048.1</v>
+        <v>1048.05</v>
       </c>
       <c r="F59" t="n">
-        <v>1048.1</v>
+        <v>1048.45</v>
       </c>
       <c r="G59" t="n">
-        <v>1047.65</v>
+        <v>1048.05</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2355,12 +2355,12 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1047.59</v>
+        <v>1047.67</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>15869.6</v>
+        <v>15882.3</v>
       </c>
       <c r="E60" t="n">
-        <v>15862.55</v>
+        <v>15885.5</v>
       </c>
       <c r="F60" t="n">
-        <v>15870.45</v>
+        <v>15886.15</v>
       </c>
       <c r="G60" t="n">
-        <v>15861.75</v>
+        <v>15881.65</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2404,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>34061.8</v>
+        <v>34076.35</v>
       </c>
       <c r="E61" t="n">
-        <v>34052.6</v>
+        <v>34077.2</v>
       </c>
       <c r="F61" t="n">
-        <v>34065.8</v>
+        <v>34081.4</v>
       </c>
       <c r="G61" t="n">
-        <v>34050.9</v>
+        <v>34073.25</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2434,19 +2434,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>100</v>
+        <v>494</v>
       </c>
       <c r="D62" t="n">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="E62" t="n">
-        <v>1689.55</v>
+        <v>1691.3</v>
       </c>
       <c r="F62" t="n">
-        <v>1690</v>
+        <v>1691.3</v>
       </c>
       <c r="G62" t="n">
-        <v>1688.4</v>
+        <v>1690.5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2454,12 +2454,12 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1691.28</v>
+        <v>1691.31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2467,19 +2467,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2104</v>
+        <v>1548</v>
       </c>
       <c r="D63" t="n">
-        <v>2208</v>
+        <v>2223.45</v>
       </c>
       <c r="E63" t="n">
-        <v>2203.65</v>
+        <v>2223.8</v>
       </c>
       <c r="F63" t="n">
-        <v>2208</v>
+        <v>2224.6</v>
       </c>
       <c r="G63" t="n">
-        <v>2202.1</v>
+        <v>2222.3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2487,12 +2487,12 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2210.22</v>
+        <v>2211.69</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2500,19 +2500,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>389</v>
+        <v>482</v>
       </c>
       <c r="D64" t="n">
-        <v>1879.05</v>
+        <v>1877</v>
       </c>
       <c r="E64" t="n">
-        <v>1879.8</v>
+        <v>1874.95</v>
       </c>
       <c r="F64" t="n">
-        <v>1880.95</v>
+        <v>1877</v>
       </c>
       <c r="G64" t="n">
-        <v>1879</v>
+        <v>1873.95</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2520,12 +2520,12 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1871.69</v>
+        <v>1871.97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2533,19 +2533,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45414</v>
+        <v>19800</v>
       </c>
       <c r="D65" t="n">
-        <v>2418.35</v>
+        <v>2417.05</v>
       </c>
       <c r="E65" t="n">
-        <v>2414.15</v>
+        <v>2418</v>
       </c>
       <c r="F65" t="n">
-        <v>2418.6</v>
+        <v>2418.15</v>
       </c>
       <c r="G65" t="n">
-        <v>2413.25</v>
+        <v>2417</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2422.89</v>
+        <v>2422.33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2566,19 +2566,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8727</v>
+        <v>20860</v>
       </c>
       <c r="D66" t="n">
-        <v>815.35</v>
+        <v>819.75</v>
       </c>
       <c r="E66" t="n">
-        <v>816.15</v>
+        <v>819.75</v>
       </c>
       <c r="F66" t="n">
-        <v>816.5</v>
+        <v>820.3</v>
       </c>
       <c r="G66" t="n">
-        <v>815.15</v>
+        <v>819.45</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2586,12 +2586,12 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>813.79</v>
+        <v>814.42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1021</v>
+        <v>2002</v>
       </c>
       <c r="D67" t="n">
-        <v>1124.4</v>
+        <v>1122</v>
       </c>
       <c r="E67" t="n">
-        <v>1123.35</v>
+        <v>1121.95</v>
       </c>
       <c r="F67" t="n">
-        <v>1124.4</v>
+        <v>1122.2</v>
       </c>
       <c r="G67" t="n">
-        <v>1123.2</v>
+        <v>1120.5</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2619,12 +2619,12 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1121.79</v>
+        <v>1121.77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2632,19 +2632,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>26034</v>
+        <v>55516</v>
       </c>
       <c r="D68" t="n">
-        <v>476.45</v>
+        <v>476.9</v>
       </c>
       <c r="E68" t="n">
-        <v>476.6</v>
+        <v>477</v>
       </c>
       <c r="F68" t="n">
-        <v>476.9</v>
+        <v>477.2</v>
       </c>
       <c r="G68" t="n">
-        <v>476.4</v>
+        <v>476.85</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2652,12 +2652,12 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>476.27</v>
+        <v>476.32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5287</v>
+        <v>4807</v>
       </c>
       <c r="D69" t="n">
-        <v>2015</v>
+        <v>2034.55</v>
       </c>
       <c r="E69" t="n">
-        <v>2014.6</v>
+        <v>2034</v>
       </c>
       <c r="F69" t="n">
-        <v>2015.75</v>
+        <v>2036</v>
       </c>
       <c r="G69" t="n">
-        <v>2013.05</v>
+        <v>2033.4</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2685,12 +2685,12 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2024.18</v>
+        <v>2024.79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.1997337963</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2698,19 +2698,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>944</v>
+        <v>426</v>
       </c>
       <c r="D70" t="n">
-        <v>1288.35</v>
+        <v>1287.25</v>
       </c>
       <c r="E70" t="n">
-        <v>1286.9</v>
+        <v>1287.35</v>
       </c>
       <c r="F70" t="n">
-        <v>1289</v>
+        <v>1287.4</v>
       </c>
       <c r="G70" t="n">
-        <v>1286.9</v>
+        <v>1287</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2718,12 +2718,12 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1284.62</v>
+        <v>1284.75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44748.18891203704</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1959</v>
+        <v>8168</v>
       </c>
       <c r="D71" t="n">
-        <v>841.2</v>
+        <v>842</v>
       </c>
       <c r="E71" t="n">
-        <v>841.1</v>
+        <v>842</v>
       </c>
       <c r="F71" t="n">
-        <v>841.5</v>
+        <v>842.3</v>
       </c>
       <c r="G71" t="n">
-        <v>841.1</v>
+        <v>841.55</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2751,12 +2751,12 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>839.52</v>
+        <v>839.75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2764,19 +2764,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>976</v>
+        <v>2606</v>
       </c>
       <c r="D72" t="n">
-        <v>805.3</v>
+        <v>806.75</v>
       </c>
       <c r="E72" t="n">
-        <v>805.05</v>
+        <v>807</v>
       </c>
       <c r="F72" t="n">
-        <v>805.55</v>
+        <v>807.3</v>
       </c>
       <c r="G72" t="n">
-        <v>804.6</v>
+        <v>806.75</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2784,12 +2784,12 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>805.0599999999999</v>
+        <v>805.1900000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5673</v>
+        <v>6318</v>
       </c>
       <c r="D73" t="n">
-        <v>734.05</v>
+        <v>734.35</v>
       </c>
       <c r="E73" t="n">
-        <v>734.5</v>
+        <v>734.4</v>
       </c>
       <c r="F73" t="n">
-        <v>734.6</v>
+        <v>735</v>
       </c>
       <c r="G73" t="n">
-        <v>733.55</v>
+        <v>733.85</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2817,12 +2817,12 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>729.36</v>
+        <v>730.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2830,19 +2830,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>13583</v>
+        <v>23184</v>
       </c>
       <c r="D74" t="n">
-        <v>412.9</v>
+        <v>414.4</v>
       </c>
       <c r="E74" t="n">
-        <v>412.95</v>
+        <v>414.7</v>
       </c>
       <c r="F74" t="n">
-        <v>413</v>
+        <v>414.8</v>
       </c>
       <c r="G74" t="n">
-        <v>412.9</v>
+        <v>414.4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2850,12 +2850,12 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>412.99</v>
+        <v>413.34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2863,19 +2863,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>16569</v>
+        <v>20831</v>
       </c>
       <c r="D75" t="n">
-        <v>211.35</v>
+        <v>211.75</v>
       </c>
       <c r="E75" t="n">
-        <v>211.4</v>
+        <v>211.8</v>
       </c>
       <c r="F75" t="n">
-        <v>211.45</v>
+        <v>211.8</v>
       </c>
       <c r="G75" t="n">
-        <v>211.25</v>
+        <v>211.65</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2883,12 +2883,12 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>212.28</v>
+        <v>212.23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2896,19 +2896,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>14609</v>
+        <v>10428</v>
       </c>
       <c r="D76" t="n">
-        <v>840.95</v>
+        <v>841.95</v>
       </c>
       <c r="E76" t="n">
-        <v>841.25</v>
+        <v>841.95</v>
       </c>
       <c r="F76" t="n">
-        <v>841.25</v>
+        <v>842.4</v>
       </c>
       <c r="G76" t="n">
-        <v>840.5</v>
+        <v>841.65</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2916,12 +2916,12 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>844.04</v>
+        <v>843.84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2929,19 +2929,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5522</v>
+        <v>9299</v>
       </c>
       <c r="D77" t="n">
-        <v>3212.6</v>
+        <v>3222.7</v>
       </c>
       <c r="E77" t="n">
-        <v>3210</v>
+        <v>3222.75</v>
       </c>
       <c r="F77" t="n">
-        <v>3212.6</v>
+        <v>3225.95</v>
       </c>
       <c r="G77" t="n">
-        <v>3210</v>
+        <v>3221.3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2949,12 +2949,12 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3223.51</v>
+        <v>3223.07</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4821</v>
+        <v>3613</v>
       </c>
       <c r="D78" t="n">
-        <v>1007.6</v>
+        <v>1008.95</v>
       </c>
       <c r="E78" t="n">
-        <v>1006.4</v>
+        <v>1009.5</v>
       </c>
       <c r="F78" t="n">
-        <v>1007.6</v>
+        <v>1009.5</v>
       </c>
       <c r="G78" t="n">
-        <v>1006.1</v>
+        <v>1008.75</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2982,12 +2982,12 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1008.65</v>
+        <v>1008.75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2995,19 +2995,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1026</v>
+        <v>25122</v>
       </c>
       <c r="D79" t="n">
-        <v>1957.9</v>
+        <v>1965.2</v>
       </c>
       <c r="E79" t="n">
-        <v>1957.4</v>
+        <v>1969.7</v>
       </c>
       <c r="F79" t="n">
-        <v>1959</v>
+        <v>1969.9</v>
       </c>
       <c r="G79" t="n">
-        <v>1956.6</v>
+        <v>1965.2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3015,12 +3015,12 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1955.22</v>
+        <v>1957.34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19969907407</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9006</v>
+        <v>18294</v>
       </c>
       <c r="D80" t="n">
-        <v>829</v>
+        <v>834.75</v>
       </c>
       <c r="E80" t="n">
-        <v>829.25</v>
+        <v>833.95</v>
       </c>
       <c r="F80" t="n">
-        <v>830.25</v>
+        <v>835.3</v>
       </c>
       <c r="G80" t="n">
-        <v>828.65</v>
+        <v>833.65</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3048,12 +3048,12 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>827.92</v>
+        <v>828.76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3061,19 +3061,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1417</v>
+        <v>1871</v>
       </c>
       <c r="D81" t="n">
-        <v>657.6</v>
+        <v>658.5</v>
       </c>
       <c r="E81" t="n">
-        <v>657.85</v>
+        <v>658.4</v>
       </c>
       <c r="F81" t="n">
-        <v>657.9</v>
+        <v>658.6</v>
       </c>
       <c r="G81" t="n">
-        <v>657.35</v>
+        <v>658.35</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>658</v>
+        <v>657.95</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44748.18890046296</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3094,19 +3094,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>42134</v>
+        <v>52923</v>
       </c>
       <c r="D82" t="n">
-        <v>207.7</v>
+        <v>207.15</v>
       </c>
       <c r="E82" t="n">
-        <v>207.6</v>
+        <v>207.2</v>
       </c>
       <c r="F82" t="n">
-        <v>207.9</v>
+        <v>207.35</v>
       </c>
       <c r="G82" t="n">
-        <v>207.3</v>
+        <v>207.05</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3114,12 +3114,12 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>209.8</v>
+        <v>209.43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3127,19 +3127,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>12321</v>
+        <v>1800</v>
       </c>
       <c r="D83" t="n">
-        <v>964.55</v>
+        <v>957.5</v>
       </c>
       <c r="E83" t="n">
-        <v>964.3</v>
+        <v>957.2</v>
       </c>
       <c r="F83" t="n">
-        <v>965.7</v>
+        <v>958</v>
       </c>
       <c r="G83" t="n">
-        <v>964</v>
+        <v>957.05</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3147,12 +3147,12 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>962.86</v>
+        <v>962.76</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44748.18887731482</v>
+        <v>44748.19972222222</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3160,19 +3160,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7061</v>
+        <v>32701</v>
       </c>
       <c r="D84" t="n">
-        <v>415.85</v>
+        <v>416.85</v>
       </c>
       <c r="E84" t="n">
-        <v>415.55</v>
+        <v>417.35</v>
       </c>
       <c r="F84" t="n">
-        <v>415.85</v>
+        <v>417.4</v>
       </c>
       <c r="G84" t="n">
-        <v>415.55</v>
+        <v>416.85</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3180,12 +3180,12 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>415.65</v>
+        <v>415.77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44748.18888888889</v>
+        <v>44748.19971064815</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3193,19 +3193,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2325</v>
+        <v>46718</v>
       </c>
       <c r="D85" t="n">
-        <v>214.95</v>
+        <v>215.8</v>
       </c>
       <c r="E85" t="n">
-        <v>214.7</v>
+        <v>216.45</v>
       </c>
       <c r="F85" t="n">
-        <v>214.95</v>
+        <v>216.5</v>
       </c>
       <c r="G85" t="n">
-        <v>214.6</v>
+        <v>215.75</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>214.95</v>
+        <v>215.08</v>
       </c>
     </row>
   </sheetData>

--- a/day_data/2022-07-06_1MIN.xlsx
+++ b/day_data/2022-07-06_1MIN.xlsx
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -454,19 +454,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>338</v>
+        <v>781</v>
       </c>
       <c r="D2" t="n">
-        <v>2165.75</v>
+        <v>2172.3</v>
       </c>
       <c r="E2" t="n">
-        <v>2165</v>
+        <v>2169.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2167.35</v>
+        <v>2172.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2165</v>
+        <v>2169.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -474,12 +474,12 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2164.19</v>
+        <v>2165.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44748.19969907407</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2202</v>
+        <v>3073</v>
       </c>
       <c r="D3" t="n">
-        <v>2263.75</v>
+        <v>2265.1</v>
       </c>
       <c r="E3" t="n">
-        <v>2262.4</v>
+        <v>2262.25</v>
       </c>
       <c r="F3" t="n">
-        <v>2264.4</v>
+        <v>2265.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2261.05</v>
+        <v>2261.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -507,12 +507,12 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2255.71</v>
+        <v>2260.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -520,19 +520,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32092</v>
+        <v>2749</v>
       </c>
       <c r="D4" t="n">
-        <v>687.4</v>
+        <v>692.65</v>
       </c>
       <c r="E4" t="n">
-        <v>686.8</v>
+        <v>692.5</v>
       </c>
       <c r="F4" t="n">
-        <v>688.65</v>
+        <v>692.9</v>
       </c>
       <c r="G4" t="n">
-        <v>686.8</v>
+        <v>692.25</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -540,12 +540,12 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>683.71</v>
+        <v>687.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -553,19 +553,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1788</v>
+        <v>12184</v>
       </c>
       <c r="D5" t="n">
-        <v>368.75</v>
+        <v>368.1</v>
       </c>
       <c r="E5" t="n">
-        <v>368.8</v>
+        <v>367.9</v>
       </c>
       <c r="F5" t="n">
-        <v>368.8</v>
+        <v>368.15</v>
       </c>
       <c r="G5" t="n">
-        <v>368.6</v>
+        <v>367.9</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>368.05</v>
+        <v>368.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="D6" t="n">
-        <v>3855</v>
+        <v>3880.9</v>
       </c>
       <c r="E6" t="n">
-        <v>3855</v>
+        <v>3878.15</v>
       </c>
       <c r="F6" t="n">
-        <v>3855</v>
+        <v>3881.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3851.65</v>
+        <v>3878</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3818.32</v>
+        <v>3835.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3533</v>
+        <v>1095</v>
       </c>
       <c r="D7" t="n">
-        <v>2846.7</v>
+        <v>2852.95</v>
       </c>
       <c r="E7" t="n">
-        <v>2846.2</v>
+        <v>2853.45</v>
       </c>
       <c r="F7" t="n">
-        <v>2848</v>
+        <v>2853.55</v>
       </c>
       <c r="G7" t="n">
-        <v>2845.85</v>
+        <v>2852.15</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -639,12 +639,12 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2839.61</v>
+        <v>2840.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6921</v>
+        <v>1306</v>
       </c>
       <c r="D8" t="n">
-        <v>570.5</v>
+        <v>575.25</v>
       </c>
       <c r="E8" t="n">
-        <v>570</v>
+        <v>575.05</v>
       </c>
       <c r="F8" t="n">
-        <v>570.5</v>
+        <v>575.45</v>
       </c>
       <c r="G8" t="n">
-        <v>569.7</v>
+        <v>575</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -672,12 +672,12 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>567.65</v>
+        <v>571.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -685,19 +685,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9435</v>
+        <v>490</v>
       </c>
       <c r="D9" t="n">
-        <v>540.35</v>
+        <v>541.3</v>
       </c>
       <c r="E9" t="n">
-        <v>539.9</v>
+        <v>541.25</v>
       </c>
       <c r="F9" t="n">
-        <v>540.45</v>
+        <v>541.45</v>
       </c>
       <c r="G9" t="n">
-        <v>539.6</v>
+        <v>541.25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -705,12 +705,12 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>537.28</v>
+        <v>536.71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -718,19 +718,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21073</v>
+        <v>5302</v>
       </c>
       <c r="D10" t="n">
-        <v>655.35</v>
+        <v>655.6</v>
       </c>
       <c r="E10" t="n">
         <v>655.35</v>
       </c>
       <c r="F10" t="n">
-        <v>655.7</v>
+        <v>655.6</v>
       </c>
       <c r="G10" t="n">
-        <v>655.2</v>
+        <v>655.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -738,12 +738,12 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>655.89</v>
+        <v>655.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1704</v>
+        <v>670</v>
       </c>
       <c r="D11" t="n">
-        <v>3725</v>
+        <v>3765.9</v>
       </c>
       <c r="E11" t="n">
-        <v>3724.95</v>
+        <v>3764.55</v>
       </c>
       <c r="F11" t="n">
-        <v>3725.5</v>
+        <v>3767.05</v>
       </c>
       <c r="G11" t="n">
-        <v>3722</v>
+        <v>3764.4</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -771,12 +771,12 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3704.14</v>
+        <v>3739.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5462</v>
+        <v>3052</v>
       </c>
       <c r="D12" t="n">
-        <v>5845.8</v>
+        <v>5905</v>
       </c>
       <c r="E12" t="n">
-        <v>5846.95</v>
+        <v>5903.45</v>
       </c>
       <c r="F12" t="n">
-        <v>5849.9</v>
+        <v>5906</v>
       </c>
       <c r="G12" t="n">
-        <v>5845</v>
+        <v>5900.55</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -804,12 +804,12 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5797.12</v>
+        <v>5832.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44748.1997337963</v>
+        <v>44748.34446759259</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -817,19 +817,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5450</v>
+        <v>5600</v>
       </c>
       <c r="D13" t="n">
-        <v>34135.7</v>
+        <v>34316</v>
       </c>
       <c r="E13" t="n">
-        <v>34138.5</v>
+        <v>34318.75</v>
       </c>
       <c r="F13" t="n">
-        <v>34140.5</v>
+        <v>34320</v>
       </c>
       <c r="G13" t="n">
-        <v>34130</v>
+        <v>34310</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -837,12 +837,12 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>34114.76</v>
+        <v>34211.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44748.1997337963</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1015</v>
+        <v>102</v>
       </c>
       <c r="D14" t="n">
-        <v>1751</v>
+        <v>1772.55</v>
       </c>
       <c r="E14" t="n">
-        <v>1751.75</v>
+        <v>1771.05</v>
       </c>
       <c r="F14" t="n">
-        <v>1752</v>
+        <v>1772.55</v>
       </c>
       <c r="G14" t="n">
-        <v>1750.05</v>
+        <v>1771.05</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -870,12 +870,12 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1744.51</v>
+        <v>1756.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -883,19 +883,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1189</v>
+        <v>1100</v>
       </c>
       <c r="D15" t="n">
-        <v>657.1</v>
+        <v>655</v>
       </c>
       <c r="E15" t="n">
-        <v>656.2</v>
+        <v>655.05</v>
       </c>
       <c r="F15" t="n">
-        <v>657.15</v>
+        <v>655.05</v>
       </c>
       <c r="G15" t="n">
-        <v>656.2</v>
+        <v>654.6</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -903,12 +903,12 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>656.12</v>
+        <v>656.0700000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -916,19 +916,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2577</v>
+        <v>8256</v>
       </c>
       <c r="D16" t="n">
-        <v>687.7</v>
+        <v>692.4</v>
       </c>
       <c r="E16" t="n">
-        <v>687.65</v>
+        <v>692.35</v>
       </c>
       <c r="F16" t="n">
-        <v>687.7</v>
+        <v>692.65</v>
       </c>
       <c r="G16" t="n">
-        <v>687.65</v>
+        <v>691.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -936,12 +936,12 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>687.65</v>
+        <v>690.27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -949,19 +949,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11004</v>
+        <v>364</v>
       </c>
       <c r="D17" t="n">
-        <v>318.5</v>
+        <v>319.15</v>
       </c>
       <c r="E17" t="n">
-        <v>318.5</v>
+        <v>319</v>
       </c>
       <c r="F17" t="n">
-        <v>318.8</v>
+        <v>319.2</v>
       </c>
       <c r="G17" t="n">
-        <v>318.25</v>
+        <v>319</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>316.39</v>
+        <v>317.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -982,19 +982,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4959</v>
+        <v>2536</v>
       </c>
       <c r="D18" t="n">
-        <v>315.85</v>
+        <v>320.65</v>
       </c>
       <c r="E18" t="n">
-        <v>316.3</v>
+        <v>320.6</v>
       </c>
       <c r="F18" t="n">
-        <v>316.3</v>
+        <v>320.7</v>
       </c>
       <c r="G18" t="n">
-        <v>315.7</v>
+        <v>320.45</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1002,12 +1002,12 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>317.98</v>
+        <v>318.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1015,19 +1015,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8163</v>
+        <v>4570</v>
       </c>
       <c r="D19" t="n">
-        <v>643</v>
+        <v>636.6</v>
       </c>
       <c r="E19" t="n">
-        <v>643</v>
+        <v>636.3</v>
       </c>
       <c r="F19" t="n">
-        <v>643.1</v>
+        <v>636.8</v>
       </c>
       <c r="G19" t="n">
-        <v>642.9</v>
+        <v>636.15</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1035,12 +1035,12 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>645.99</v>
+        <v>640.71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3227</v>
+        <v>1586</v>
       </c>
       <c r="D20" t="n">
-        <v>942</v>
+        <v>945.25</v>
       </c>
       <c r="E20" t="n">
-        <v>941.3</v>
+        <v>945.15</v>
       </c>
       <c r="F20" t="n">
-        <v>942.3</v>
+        <v>945.75</v>
       </c>
       <c r="G20" t="n">
-        <v>940.75</v>
+        <v>945</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1068,12 +1068,12 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>937.65</v>
+        <v>939.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1081,19 +1081,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18494</v>
+        <v>1027</v>
       </c>
       <c r="D21" t="n">
-        <v>178.55</v>
+        <v>181.3</v>
       </c>
       <c r="E21" t="n">
-        <v>178.4</v>
+        <v>181.25</v>
       </c>
       <c r="F21" t="n">
-        <v>178.55</v>
+        <v>181.35</v>
       </c>
       <c r="G21" t="n">
-        <v>178.3</v>
+        <v>181.25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1101,12 +1101,12 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>179.35</v>
+        <v>179.47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1114,19 +1114,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>406</v>
+        <v>75</v>
       </c>
       <c r="D22" t="n">
-        <v>3562.95</v>
+        <v>3613.05</v>
       </c>
       <c r="E22" t="n">
-        <v>3564</v>
+        <v>3613.1</v>
       </c>
       <c r="F22" t="n">
-        <v>3565</v>
+        <v>3614.75</v>
       </c>
       <c r="G22" t="n">
-        <v>3558.3</v>
+        <v>3613.05</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1134,12 +1134,12 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3550.91</v>
+        <v>3574.92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1147,19 +1147,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3799</v>
+        <v>2200</v>
       </c>
       <c r="D23" t="n">
-        <v>529</v>
+        <v>540.15</v>
       </c>
       <c r="E23" t="n">
-        <v>529.05</v>
+        <v>540.2</v>
       </c>
       <c r="F23" t="n">
-        <v>529.05</v>
+        <v>540.25</v>
       </c>
       <c r="G23" t="n">
-        <v>528.85</v>
+        <v>540</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1167,12 +1167,12 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>526.23</v>
+        <v>532.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="D24" t="n">
-        <v>3639.5</v>
+        <v>3640.4</v>
       </c>
       <c r="E24" t="n">
-        <v>3637.4</v>
+        <v>3641</v>
       </c>
       <c r="F24" t="n">
-        <v>3640.35</v>
+        <v>3642.25</v>
       </c>
       <c r="G24" t="n">
-        <v>3637.1</v>
+        <v>3640.4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1200,12 +1200,12 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3622.79</v>
+        <v>3623.72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1213,19 +1213,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3786</v>
+        <v>2676</v>
       </c>
       <c r="D25" t="n">
-        <v>326</v>
+        <v>328.05</v>
       </c>
       <c r="E25" t="n">
-        <v>325.9</v>
+        <v>328.2</v>
       </c>
       <c r="F25" t="n">
-        <v>326</v>
+        <v>328.2</v>
       </c>
       <c r="G25" t="n">
-        <v>325.8</v>
+        <v>328</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1233,12 +1233,12 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>324.88</v>
+        <v>326.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1246,19 +1246,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>4432</v>
+        <v>4430.5</v>
       </c>
       <c r="E26" t="n">
-        <v>4431</v>
+        <v>4430.5</v>
       </c>
       <c r="F26" t="n">
-        <v>4434.7</v>
+        <v>4432.1</v>
       </c>
       <c r="G26" t="n">
-        <v>4430</v>
+        <v>4430.45</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1266,12 +1266,12 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4416.36</v>
+        <v>4418.14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1279,19 +1279,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5133</v>
+        <v>851</v>
       </c>
       <c r="D27" t="n">
+        <v>2896.65</v>
+      </c>
+      <c r="E27" t="n">
         <v>2894</v>
       </c>
-      <c r="E27" t="n">
-        <v>2892.3</v>
-      </c>
       <c r="F27" t="n">
-        <v>2895.9</v>
+        <v>2896.65</v>
       </c>
       <c r="G27" t="n">
-        <v>2890.05</v>
+        <v>2894</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1299,12 +1299,12 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2870.6</v>
+        <v>2877.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17637</v>
+        <v>85907</v>
       </c>
       <c r="D28" t="n">
-        <v>843.3</v>
+        <v>871.5</v>
       </c>
       <c r="E28" t="n">
-        <v>844.45</v>
+        <v>872.95</v>
       </c>
       <c r="F28" t="n">
-        <v>844.45</v>
+        <v>873.25</v>
       </c>
       <c r="G28" t="n">
-        <v>843</v>
+        <v>871.5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1332,12 +1332,12 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>836.1799999999999</v>
+        <v>858.49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1345,19 +1345,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="D29" t="n">
-        <v>1240.7</v>
+        <v>1273</v>
       </c>
       <c r="E29" t="n">
-        <v>1240.05</v>
+        <v>1273.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1240.7</v>
+        <v>1273.95</v>
       </c>
       <c r="G29" t="n">
-        <v>1240</v>
+        <v>1273</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1365,12 +1365,12 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1237.15</v>
+        <v>1246.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>790</v>
+        <v>1861</v>
       </c>
       <c r="D30" t="n">
-        <v>1361.8</v>
+        <v>1364.85</v>
       </c>
       <c r="E30" t="n">
-        <v>1362</v>
+        <v>1363.4</v>
       </c>
       <c r="F30" t="n">
-        <v>1362.9</v>
+        <v>1364.85</v>
       </c>
       <c r="G30" t="n">
-        <v>1360.6</v>
+        <v>1363.2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1398,12 +1398,12 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1355.23</v>
+        <v>1357.86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1411,19 +1411,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2689</v>
+        <v>578</v>
       </c>
       <c r="D31" t="n">
-        <v>1180.75</v>
+        <v>1190</v>
       </c>
       <c r="E31" t="n">
-        <v>1180.6</v>
+        <v>1190.05</v>
       </c>
       <c r="F31" t="n">
-        <v>1181.95</v>
+        <v>1190.55</v>
       </c>
       <c r="G31" t="n">
-        <v>1180.6</v>
+        <v>1190</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1431,12 +1431,12 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1175.47</v>
+        <v>1180.62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6908</v>
+        <v>8057</v>
       </c>
       <c r="D32" t="n">
-        <v>987</v>
+        <v>994.05</v>
       </c>
       <c r="E32" t="n">
-        <v>987.65</v>
+        <v>994.05</v>
       </c>
       <c r="F32" t="n">
-        <v>987.85</v>
+        <v>994.2</v>
       </c>
       <c r="G32" t="n">
-        <v>986.55</v>
+        <v>994</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1464,12 +1464,12 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>984.9</v>
+        <v>991.99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16199</v>
+        <v>1851</v>
       </c>
       <c r="D33" t="n">
-        <v>2217.7</v>
+        <v>2231.45</v>
       </c>
       <c r="E33" t="n">
-        <v>2217.75</v>
+        <v>2230.65</v>
       </c>
       <c r="F33" t="n">
-        <v>2218</v>
+        <v>2231.5</v>
       </c>
       <c r="G33" t="n">
-        <v>2217</v>
+        <v>2230.65</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1497,12 +1497,12 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2212.54</v>
+        <v>2215.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7719</v>
+        <v>6522</v>
       </c>
       <c r="D34" t="n">
-        <v>1360.4</v>
+        <v>1369.4</v>
       </c>
       <c r="E34" t="n">
-        <v>1360.3</v>
+        <v>1370.25</v>
       </c>
       <c r="F34" t="n">
-        <v>1360.4</v>
+        <v>1370.25</v>
       </c>
       <c r="G34" t="n">
-        <v>1360.1</v>
+        <v>1369.4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1530,12 +1530,12 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1357.87</v>
+        <v>1362.23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1543,19 +1543,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2558</v>
+        <v>8010</v>
       </c>
       <c r="D35" t="n">
-        <v>570.15</v>
+        <v>563.3</v>
       </c>
       <c r="E35" t="n">
-        <v>569.85</v>
+        <v>563.2</v>
       </c>
       <c r="F35" t="n">
-        <v>570.3</v>
+        <v>563.5</v>
       </c>
       <c r="G35" t="n">
-        <v>569.7</v>
+        <v>563</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1563,12 +1563,12 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>569.04</v>
+        <v>566.6900000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>769</v>
+        <v>2449</v>
       </c>
       <c r="D36" t="n">
-        <v>2791.25</v>
+        <v>2824.85</v>
       </c>
       <c r="E36" t="n">
-        <v>2791</v>
+        <v>2824</v>
       </c>
       <c r="F36" t="n">
-        <v>2791.8</v>
+        <v>2826.75</v>
       </c>
       <c r="G36" t="n">
-        <v>2790.55</v>
+        <v>2822.15</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1596,12 +1596,12 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2792.2</v>
+        <v>2804.71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1609,19 +1609,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>36959</v>
+        <v>25977</v>
       </c>
       <c r="D37" t="n">
-        <v>330.35</v>
+        <v>338.1</v>
       </c>
       <c r="E37" t="n">
-        <v>330.5</v>
+        <v>337.7</v>
       </c>
       <c r="F37" t="n">
-        <v>330.75</v>
+        <v>338.1</v>
       </c>
       <c r="G37" t="n">
-        <v>330.25</v>
+        <v>337.6</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1629,12 +1629,12 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>330.99</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1642,19 +1642,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>62044</v>
+        <v>4314</v>
       </c>
       <c r="D38" t="n">
-        <v>230.7</v>
+        <v>235.45</v>
       </c>
       <c r="E38" t="n">
-        <v>230.95</v>
+        <v>235.4</v>
       </c>
       <c r="F38" t="n">
-        <v>231.05</v>
+        <v>235.45</v>
       </c>
       <c r="G38" t="n">
-        <v>230.6</v>
+        <v>235.35</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1662,12 +1662,12 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>230.85</v>
+        <v>232.55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1675,19 +1675,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>22731</v>
+        <v>5833</v>
       </c>
       <c r="D39" t="n">
-        <v>2448.9</v>
+        <v>2474</v>
       </c>
       <c r="E39" t="n">
-        <v>2450.9</v>
+        <v>2474</v>
       </c>
       <c r="F39" t="n">
-        <v>2451</v>
+        <v>2474.75</v>
       </c>
       <c r="G39" t="n">
-        <v>2445.7</v>
+        <v>2474</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1695,12 +1695,12 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2428.11</v>
+        <v>2454.41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>18780</v>
+        <v>16464</v>
       </c>
       <c r="D40" t="n">
-        <v>724.05</v>
+        <v>728.45</v>
       </c>
       <c r="E40" t="n">
-        <v>724.05</v>
+        <v>728.2</v>
       </c>
       <c r="F40" t="n">
-        <v>724.1</v>
+        <v>728.45</v>
       </c>
       <c r="G40" t="n">
-        <v>724</v>
+        <v>728.15</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1728,12 +1728,12 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>724.23</v>
+        <v>726.97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1741,19 +1741,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1660</v>
+        <v>1967</v>
       </c>
       <c r="D41" t="n">
-        <v>502.3</v>
+        <v>509.1</v>
       </c>
       <c r="E41" t="n">
-        <v>502.45</v>
+        <v>509</v>
       </c>
       <c r="F41" t="n">
-        <v>502.45</v>
+        <v>509.2</v>
       </c>
       <c r="G41" t="n">
-        <v>502.1</v>
+        <v>509</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1761,12 +1761,12 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>499.87</v>
+        <v>504.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44748.19969907407</v>
+        <v>44748.34447916667</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1390</v>
+        <v>2571</v>
       </c>
       <c r="D42" t="n">
-        <v>359.7</v>
+        <v>363.35</v>
       </c>
       <c r="E42" t="n">
-        <v>360</v>
+        <v>363.25</v>
       </c>
       <c r="F42" t="n">
-        <v>360</v>
+        <v>363.35</v>
       </c>
       <c r="G42" t="n">
-        <v>359.6</v>
+        <v>363</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1794,12 +1794,12 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>360.31</v>
+        <v>361.71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1807,19 +1807,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2033</v>
+        <v>1486</v>
       </c>
       <c r="D43" t="n">
-        <v>1656.5</v>
+        <v>1657.95</v>
       </c>
       <c r="E43" t="n">
-        <v>1655.85</v>
+        <v>1654.55</v>
       </c>
       <c r="F43" t="n">
-        <v>1656.85</v>
+        <v>1657.95</v>
       </c>
       <c r="G43" t="n">
-        <v>1654.85</v>
+        <v>1654.55</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1827,12 +1827,12 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1673.34</v>
+        <v>1660.95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1979</v>
+        <v>1368</v>
       </c>
       <c r="D44" t="n">
-        <v>828.4</v>
+        <v>831.7</v>
       </c>
       <c r="E44" t="n">
-        <v>828</v>
+        <v>831.6</v>
       </c>
       <c r="F44" t="n">
-        <v>828.55</v>
+        <v>831.8</v>
       </c>
       <c r="G44" t="n">
-        <v>827.65</v>
+        <v>831.1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1860,12 +1860,12 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>831.22</v>
+        <v>831.38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1873,19 +1873,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17531</v>
+        <v>2530</v>
       </c>
       <c r="D45" t="n">
-        <v>1473.85</v>
+        <v>1494.65</v>
       </c>
       <c r="E45" t="n">
-        <v>1475.7</v>
+        <v>1494.55</v>
       </c>
       <c r="F45" t="n">
-        <v>1476</v>
+        <v>1494.8</v>
       </c>
       <c r="G45" t="n">
-        <v>1473.55</v>
+        <v>1494.1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1893,12 +1893,12 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1479.89</v>
+        <v>1483.24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6801</v>
+        <v>1864</v>
       </c>
       <c r="D46" t="n">
-        <v>566.5</v>
+        <v>572.1</v>
       </c>
       <c r="E46" t="n">
-        <v>566.8</v>
+        <v>572.1</v>
       </c>
       <c r="F46" t="n">
-        <v>566.85</v>
+        <v>572.25</v>
       </c>
       <c r="G46" t="n">
-        <v>566.4</v>
+        <v>571.85</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1926,12 +1926,12 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>563.46</v>
+        <v>566.3200000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1939,19 +1939,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17186</v>
+        <v>29951</v>
       </c>
       <c r="D47" t="n">
-        <v>286.2</v>
+        <v>288.45</v>
       </c>
       <c r="E47" t="n">
-        <v>286.1</v>
+        <v>288.45</v>
       </c>
       <c r="F47" t="n">
-        <v>286.2</v>
+        <v>288.55</v>
       </c>
       <c r="G47" t="n">
-        <v>285.9</v>
+        <v>288.4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1959,12 +1959,12 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>287.45</v>
+        <v>287.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1972,19 +1972,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6948</v>
+        <v>3972</v>
       </c>
       <c r="D48" t="n">
-        <v>322.65</v>
+        <v>330.3</v>
       </c>
       <c r="E48" t="n">
-        <v>322.75</v>
+        <v>330</v>
       </c>
       <c r="F48" t="n">
-        <v>322.95</v>
+        <v>330.3</v>
       </c>
       <c r="G48" t="n">
-        <v>322.6</v>
+        <v>329.8</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1992,12 +1992,12 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>325.15</v>
+        <v>326.53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2005,19 +2005,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3922</v>
+        <v>3663</v>
       </c>
       <c r="D49" t="n">
-        <v>543.35</v>
+        <v>552.55</v>
       </c>
       <c r="E49" t="n">
-        <v>543.65</v>
+        <v>552</v>
       </c>
       <c r="F49" t="n">
-        <v>544</v>
+        <v>552.55</v>
       </c>
       <c r="G49" t="n">
-        <v>543.35</v>
+        <v>552</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2025,12 +2025,12 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>545.14</v>
+        <v>546.77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2038,19 +2038,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6858</v>
+        <v>2328</v>
       </c>
       <c r="D50" t="n">
-        <v>554.55</v>
+        <v>560.3</v>
       </c>
       <c r="E50" t="n">
-        <v>554.65</v>
+        <v>560.55</v>
       </c>
       <c r="F50" t="n">
-        <v>554.85</v>
+        <v>560.75</v>
       </c>
       <c r="G50" t="n">
-        <v>554.05</v>
+        <v>560.25</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2058,12 +2058,12 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>551.04</v>
+        <v>556.97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4245</v>
+        <v>7224</v>
       </c>
       <c r="D51" t="n">
-        <v>1680.85</v>
+        <v>1710.25</v>
       </c>
       <c r="E51" t="n">
-        <v>1681</v>
+        <v>1709.75</v>
       </c>
       <c r="F51" t="n">
-        <v>1681.9</v>
+        <v>1710.25</v>
       </c>
       <c r="G51" t="n">
-        <v>1680.1</v>
+        <v>1709.55</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2091,12 +2091,12 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1678.2</v>
+        <v>1684.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2957</v>
+        <v>1176</v>
       </c>
       <c r="D52" t="n">
-        <v>342.5</v>
+        <v>346.4</v>
       </c>
       <c r="E52" t="n">
-        <v>342.6</v>
+        <v>346.4</v>
       </c>
       <c r="F52" t="n">
-        <v>342.75</v>
+        <v>346.45</v>
       </c>
       <c r="G52" t="n">
-        <v>342.5</v>
+        <v>346.25</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2124,12 +2124,12 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>341.69</v>
+        <v>343.64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2137,19 +2137,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2286</v>
+        <v>2317</v>
       </c>
       <c r="D53" t="n">
-        <v>1563.7</v>
+        <v>1557</v>
       </c>
       <c r="E53" t="n">
-        <v>1564.15</v>
+        <v>1557</v>
       </c>
       <c r="F53" t="n">
-        <v>1564.95</v>
+        <v>1557.1</v>
       </c>
       <c r="G53" t="n">
-        <v>1563.2</v>
+        <v>1557</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2157,12 +2157,12 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1576.77</v>
+        <v>1564.35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2170,19 +2170,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1445</v>
+        <v>713</v>
       </c>
       <c r="D54" t="n">
-        <v>4009.45</v>
+        <v>4000.65</v>
       </c>
       <c r="E54" t="n">
-        <v>4010.05</v>
+        <v>4001</v>
       </c>
       <c r="F54" t="n">
-        <v>4013.65</v>
+        <v>4002</v>
       </c>
       <c r="G54" t="n">
-        <v>4009.45</v>
+        <v>3999.95</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2190,12 +2190,12 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3987.52</v>
+        <v>4001.63</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44748.1997337963</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1965</v>
+        <v>318</v>
       </c>
       <c r="D55" t="n">
-        <v>629.55</v>
+        <v>631.65</v>
       </c>
       <c r="E55" t="n">
-        <v>628.65</v>
+        <v>631.4</v>
       </c>
       <c r="F55" t="n">
-        <v>629.55</v>
+        <v>631.8</v>
       </c>
       <c r="G55" t="n">
-        <v>628.55</v>
+        <v>631.4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2223,12 +2223,12 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>624.73</v>
+        <v>627.61</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>55830</v>
+        <v>9752</v>
       </c>
       <c r="D56" t="n">
-        <v>1109.45</v>
+        <v>1104.25</v>
       </c>
       <c r="E56" t="n">
-        <v>1111.5</v>
+        <v>1103.7</v>
       </c>
       <c r="F56" t="n">
-        <v>1112</v>
+        <v>1104.65</v>
       </c>
       <c r="G56" t="n">
-        <v>1109.2</v>
+        <v>1103.1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2256,12 +2256,12 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1100.3</v>
+        <v>1102.82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2269,19 +2269,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7316</v>
+        <v>2067</v>
       </c>
       <c r="D57" t="n">
-        <v>8518</v>
+        <v>8585.6</v>
       </c>
       <c r="E57" t="n">
-        <v>8500.1</v>
+        <v>8594.65</v>
       </c>
       <c r="F57" t="n">
-        <v>8518.1</v>
+        <v>8595.450000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>8498.049999999999</v>
+        <v>8585</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2289,12 +2289,12 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8459.49</v>
+        <v>8519.49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2302,19 +2302,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1924</v>
+        <v>108</v>
       </c>
       <c r="D58" t="n">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="E58" t="n">
-        <v>2848.55</v>
+        <v>2851.4</v>
       </c>
       <c r="F58" t="n">
-        <v>2850.05</v>
+        <v>2852</v>
       </c>
       <c r="G58" t="n">
-        <v>2848.25</v>
+        <v>2851</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2322,12 +2322,12 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2838</v>
+        <v>2846.71</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44748.19975694444</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2335,19 +2335,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>669</v>
+        <v>500</v>
       </c>
       <c r="D59" t="n">
-        <v>1048.1</v>
+        <v>1051.55</v>
       </c>
       <c r="E59" t="n">
-        <v>1048.05</v>
+        <v>1051.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1048.45</v>
+        <v>1052.2</v>
       </c>
       <c r="G59" t="n">
-        <v>1048.05</v>
+        <v>1051.45</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2355,12 +2355,12 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1047.67</v>
+        <v>1048.64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>15882.3</v>
+        <v>15976.05</v>
       </c>
       <c r="E60" t="n">
-        <v>15885.5</v>
+        <v>15974.1</v>
       </c>
       <c r="F60" t="n">
-        <v>15886.15</v>
+        <v>15976.15</v>
       </c>
       <c r="G60" t="n">
-        <v>15881.65</v>
+        <v>15972.65</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2404,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>34076.35</v>
+        <v>34295.15</v>
       </c>
       <c r="E61" t="n">
-        <v>34077.2</v>
+        <v>34293.65</v>
       </c>
       <c r="F61" t="n">
-        <v>34081.4</v>
+        <v>34296.35</v>
       </c>
       <c r="G61" t="n">
-        <v>34073.25</v>
+        <v>34285.5</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34446759259</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2434,19 +2434,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>494</v>
+        <v>696</v>
       </c>
       <c r="D62" t="n">
-        <v>1691</v>
+        <v>1706.7</v>
       </c>
       <c r="E62" t="n">
-        <v>1691.3</v>
+        <v>1706.3</v>
       </c>
       <c r="F62" t="n">
-        <v>1691.3</v>
+        <v>1706.7</v>
       </c>
       <c r="G62" t="n">
-        <v>1690.5</v>
+        <v>1705.35</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2454,12 +2454,12 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1691.31</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2467,19 +2467,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1548</v>
+        <v>441</v>
       </c>
       <c r="D63" t="n">
-        <v>2223.45</v>
+        <v>2207.7</v>
       </c>
       <c r="E63" t="n">
-        <v>2223.8</v>
+        <v>2207.1</v>
       </c>
       <c r="F63" t="n">
-        <v>2224.6</v>
+        <v>2207.7</v>
       </c>
       <c r="G63" t="n">
-        <v>2222.3</v>
+        <v>2205.2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2487,12 +2487,12 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2211.69</v>
+        <v>2209.53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2500,19 +2500,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>482</v>
+        <v>1101</v>
       </c>
       <c r="D64" t="n">
-        <v>1877</v>
+        <v>1873.95</v>
       </c>
       <c r="E64" t="n">
-        <v>1874.95</v>
+        <v>1871.2</v>
       </c>
       <c r="F64" t="n">
-        <v>1877</v>
+        <v>1873.95</v>
       </c>
       <c r="G64" t="n">
-        <v>1873.95</v>
+        <v>1870</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2520,12 +2520,12 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1871.97</v>
+        <v>1871.19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2533,19 +2533,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19800</v>
+        <v>17097</v>
       </c>
       <c r="D65" t="n">
-        <v>2417.05</v>
+        <v>2409.3</v>
       </c>
       <c r="E65" t="n">
-        <v>2418</v>
+        <v>2409.05</v>
       </c>
       <c r="F65" t="n">
-        <v>2418.15</v>
+        <v>2409.3</v>
       </c>
       <c r="G65" t="n">
-        <v>2417</v>
+        <v>2408</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2422.33</v>
+        <v>2411.46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2566,19 +2566,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20860</v>
+        <v>3586</v>
       </c>
       <c r="D66" t="n">
-        <v>819.75</v>
+        <v>836.6</v>
       </c>
       <c r="E66" t="n">
-        <v>819.75</v>
+        <v>836.1</v>
       </c>
       <c r="F66" t="n">
-        <v>820.3</v>
+        <v>836.8</v>
       </c>
       <c r="G66" t="n">
-        <v>819.45</v>
+        <v>835.85</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2586,12 +2586,12 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>814.42</v>
+        <v>823.25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2002</v>
+        <v>859</v>
       </c>
       <c r="D67" t="n">
-        <v>1122</v>
+        <v>1117.45</v>
       </c>
       <c r="E67" t="n">
-        <v>1121.95</v>
+        <v>1117.15</v>
       </c>
       <c r="F67" t="n">
-        <v>1122.2</v>
+        <v>1117.7</v>
       </c>
       <c r="G67" t="n">
-        <v>1120.5</v>
+        <v>1117.15</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2619,12 +2619,12 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1121.77</v>
+        <v>1118.75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2632,19 +2632,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>55516</v>
+        <v>6516</v>
       </c>
       <c r="D68" t="n">
-        <v>476.9</v>
+        <v>477.95</v>
       </c>
       <c r="E68" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F68" t="n">
-        <v>477.2</v>
+        <v>478</v>
       </c>
       <c r="G68" t="n">
-        <v>476.85</v>
+        <v>477.85</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2652,12 +2652,12 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>476.32</v>
+        <v>477.77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4807</v>
+        <v>2747</v>
       </c>
       <c r="D69" t="n">
-        <v>2034.55</v>
+        <v>2031.2</v>
       </c>
       <c r="E69" t="n">
-        <v>2034</v>
+        <v>2032.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2036</v>
+        <v>2032.3</v>
       </c>
       <c r="G69" t="n">
-        <v>2033.4</v>
+        <v>2028</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2685,12 +2685,12 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2024.79</v>
+        <v>2023.24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44748.1997337963</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2698,19 +2698,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="D70" t="n">
-        <v>1287.25</v>
+        <v>1290.1</v>
       </c>
       <c r="E70" t="n">
-        <v>1287.35</v>
+        <v>1289.95</v>
       </c>
       <c r="F70" t="n">
-        <v>1287.4</v>
+        <v>1290.6</v>
       </c>
       <c r="G70" t="n">
-        <v>1287</v>
+        <v>1289.85</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2718,12 +2718,12 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1284.75</v>
+        <v>1286.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8168</v>
+        <v>3627</v>
       </c>
       <c r="D71" t="n">
-        <v>842</v>
+        <v>837.35</v>
       </c>
       <c r="E71" t="n">
-        <v>842</v>
+        <v>837.4</v>
       </c>
       <c r="F71" t="n">
-        <v>842.3</v>
+        <v>837.4</v>
       </c>
       <c r="G71" t="n">
-        <v>841.55</v>
+        <v>837</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2751,12 +2751,12 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>839.75</v>
+        <v>836.01</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2764,19 +2764,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2606</v>
+        <v>1863</v>
       </c>
       <c r="D72" t="n">
-        <v>806.75</v>
+        <v>810.95</v>
       </c>
       <c r="E72" t="n">
-        <v>807</v>
+        <v>810.75</v>
       </c>
       <c r="F72" t="n">
-        <v>807.3</v>
+        <v>811.6</v>
       </c>
       <c r="G72" t="n">
-        <v>806.75</v>
+        <v>810.55</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2784,12 +2784,12 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>805.1900000000001</v>
+        <v>807.0599999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6318</v>
+        <v>5849</v>
       </c>
       <c r="D73" t="n">
-        <v>734.35</v>
+        <v>747</v>
       </c>
       <c r="E73" t="n">
-        <v>734.4</v>
+        <v>747.05</v>
       </c>
       <c r="F73" t="n">
-        <v>735</v>
+        <v>747.1</v>
       </c>
       <c r="G73" t="n">
-        <v>733.85</v>
+        <v>746.4</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2817,12 +2817,12 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>730.1</v>
+        <v>737.53</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2830,19 +2830,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>23184</v>
+        <v>28917</v>
       </c>
       <c r="D74" t="n">
-        <v>414.4</v>
+        <v>415.8</v>
       </c>
       <c r="E74" t="n">
-        <v>414.7</v>
+        <v>415.9</v>
       </c>
       <c r="F74" t="n">
-        <v>414.8</v>
+        <v>415.95</v>
       </c>
       <c r="G74" t="n">
-        <v>414.4</v>
+        <v>415.7</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2850,12 +2850,12 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>413.34</v>
+        <v>413.87</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2863,19 +2863,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>20831</v>
+        <v>26764</v>
       </c>
       <c r="D75" t="n">
-        <v>211.75</v>
+        <v>213.05</v>
       </c>
       <c r="E75" t="n">
-        <v>211.8</v>
+        <v>212.95</v>
       </c>
       <c r="F75" t="n">
-        <v>211.8</v>
+        <v>213.1</v>
       </c>
       <c r="G75" t="n">
-        <v>211.65</v>
+        <v>212.9</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2883,12 +2883,12 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>212.23</v>
+        <v>212.07</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2896,19 +2896,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10428</v>
+        <v>7205</v>
       </c>
       <c r="D76" t="n">
-        <v>841.95</v>
+        <v>852.75</v>
       </c>
       <c r="E76" t="n">
-        <v>841.95</v>
+        <v>852.25</v>
       </c>
       <c r="F76" t="n">
-        <v>842.4</v>
+        <v>853</v>
       </c>
       <c r="G76" t="n">
-        <v>841.65</v>
+        <v>852.2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2916,12 +2916,12 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>843.84</v>
+        <v>845.5599999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2929,19 +2929,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9299</v>
+        <v>1581</v>
       </c>
       <c r="D77" t="n">
-        <v>3222.7</v>
+        <v>3252.45</v>
       </c>
       <c r="E77" t="n">
-        <v>3222.75</v>
+        <v>3252</v>
       </c>
       <c r="F77" t="n">
-        <v>3225.95</v>
+        <v>3252.55</v>
       </c>
       <c r="G77" t="n">
-        <v>3221.3</v>
+        <v>3252</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2949,12 +2949,12 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3223.07</v>
+        <v>3236.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3613</v>
+        <v>1923</v>
       </c>
       <c r="D78" t="n">
-        <v>1008.95</v>
+        <v>1009.85</v>
       </c>
       <c r="E78" t="n">
-        <v>1009.5</v>
+        <v>1009.55</v>
       </c>
       <c r="F78" t="n">
-        <v>1009.5</v>
+        <v>1009.9</v>
       </c>
       <c r="G78" t="n">
-        <v>1008.75</v>
+        <v>1009.2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2982,12 +2982,12 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1008.75</v>
+        <v>1008.64</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2995,19 +2995,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>25122</v>
+        <v>5733</v>
       </c>
       <c r="D79" t="n">
-        <v>1965.2</v>
+        <v>2018.55</v>
       </c>
       <c r="E79" t="n">
-        <v>1969.7</v>
+        <v>2016.75</v>
       </c>
       <c r="F79" t="n">
-        <v>1969.9</v>
+        <v>2018.9</v>
       </c>
       <c r="G79" t="n">
-        <v>1965.2</v>
+        <v>2015.75</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3015,12 +3015,12 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1957.34</v>
+        <v>1977.61</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44748.19969907407</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>18294</v>
+        <v>1474</v>
       </c>
       <c r="D80" t="n">
-        <v>834.75</v>
+        <v>830</v>
       </c>
       <c r="E80" t="n">
-        <v>833.95</v>
+        <v>829.5</v>
       </c>
       <c r="F80" t="n">
-        <v>835.3</v>
+        <v>830</v>
       </c>
       <c r="G80" t="n">
-        <v>833.65</v>
+        <v>829.25</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3048,12 +3048,12 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>828.76</v>
+        <v>829.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3061,19 +3061,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1871</v>
+        <v>324</v>
       </c>
       <c r="D81" t="n">
-        <v>658.5</v>
+        <v>660.15</v>
       </c>
       <c r="E81" t="n">
-        <v>658.4</v>
+        <v>660</v>
       </c>
       <c r="F81" t="n">
-        <v>658.6</v>
+        <v>660.35</v>
       </c>
       <c r="G81" t="n">
-        <v>658.35</v>
+        <v>660</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>657.95</v>
+        <v>657.97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3094,19 +3094,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>52923</v>
+        <v>39596</v>
       </c>
       <c r="D82" t="n">
-        <v>207.15</v>
+        <v>212.4</v>
       </c>
       <c r="E82" t="n">
-        <v>207.2</v>
+        <v>212.3</v>
       </c>
       <c r="F82" t="n">
-        <v>207.35</v>
+        <v>212.4</v>
       </c>
       <c r="G82" t="n">
-        <v>207.05</v>
+        <v>212</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3114,12 +3114,12 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>209.43</v>
+        <v>209.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3127,19 +3127,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1800</v>
+        <v>5125</v>
       </c>
       <c r="D83" t="n">
-        <v>957.5</v>
+        <v>970</v>
       </c>
       <c r="E83" t="n">
-        <v>957.2</v>
+        <v>970.25</v>
       </c>
       <c r="F83" t="n">
-        <v>958</v>
+        <v>970.45</v>
       </c>
       <c r="G83" t="n">
-        <v>957.05</v>
+        <v>970</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3147,12 +3147,12 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>962.76</v>
+        <v>963.25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44748.19972222222</v>
+        <v>44748.34444444445</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3160,19 +3160,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32701</v>
+        <v>14185</v>
       </c>
       <c r="D84" t="n">
-        <v>416.85</v>
+        <v>415.95</v>
       </c>
       <c r="E84" t="n">
-        <v>417.35</v>
+        <v>415.9</v>
       </c>
       <c r="F84" t="n">
-        <v>417.4</v>
+        <v>416.15</v>
       </c>
       <c r="G84" t="n">
-        <v>416.85</v>
+        <v>415.85</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3180,12 +3180,12 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>415.77</v>
+        <v>415.92</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44748.19971064815</v>
+        <v>44748.34445601852</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3193,19 +3193,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>46718</v>
+        <v>7177</v>
       </c>
       <c r="D85" t="n">
-        <v>215.8</v>
+        <v>218.45</v>
       </c>
       <c r="E85" t="n">
-        <v>216.45</v>
+        <v>218.25</v>
       </c>
       <c r="F85" t="n">
-        <v>216.5</v>
+        <v>218.6</v>
       </c>
       <c r="G85" t="n">
-        <v>215.75</v>
+        <v>218.2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>215.08</v>
+        <v>216.63</v>
       </c>
     </row>
   </sheetData>
